--- a/data/iartypre03.xlsx
+++ b/data/iartypre03.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.66696792213552425</v>
+        <v>0.94470959354756734</v>
       </c>
       <c r="B1">
-        <v>0.72979144169897303</v>
+        <v>0.92694485830812456</v>
       </c>
       <c r="C1">
-        <v>0.33303207786447564</v>
+        <v>0.05529040645243273</v>
       </c>
       <c r="D1">
-        <v>0.27020855830102702</v>
+        <v>0.073055141691875478</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.025556699380903301</v>
+        <v>0.005059582521031304</v>
       </c>
       <c r="B2">
-        <v>0.019422884208755105</v>
+        <v>0.0059060178971208832</v>
       </c>
       <c r="C2">
-        <v>0.025556699380903301</v>
+        <v>0.005059582521031304</v>
       </c>
       <c r="D2">
-        <v>0.019422884208755105</v>
+        <v>0.0059060178971208832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>26.097576693878626</v>
+        <v>186.71690591479975</v>
       </c>
       <c r="B3">
-        <v>37.573793565118947</v>
+        <v>156.94921255826191</v>
       </c>
       <c r="C3">
-        <v>13.03110675212335</v>
+        <v>10.927859407887034</v>
       </c>
       <c r="D3">
-        <v>13.911865786607901</v>
+        <v>12.369610618262609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>6.4130744355572506e-112</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>9.2286736967760453e-186</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.1954220902324574e-35</v>
+        <v>1.9922643682058063e-27</v>
       </c>
       <c r="D4">
-        <v>5.9629357538959431e-40</v>
+        <v>1.531412249637421e-34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.61680942361111935</v>
+        <v>0.93479011209805463</v>
       </c>
       <c r="B5">
-        <v>0.69167138971555853</v>
+        <v>0.91536591187776972</v>
       </c>
       <c r="C5">
-        <v>0.28287357934007074</v>
+        <v>0.045370925002919969</v>
       </c>
       <c r="D5">
-        <v>0.23208850631761252</v>
+        <v>0.061476195261520677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.71712642065992915</v>
+        <v>0.95462907499708005</v>
       </c>
       <c r="B6">
-        <v>0.76791149368238754</v>
+        <v>0.93852380473847941</v>
       </c>
       <c r="C6">
-        <v>0.38319057638888054</v>
+        <v>0.065209887901945499</v>
       </c>
       <c r="D6">
-        <v>0.30832861028444153</v>
+        <v>0.084634088122230278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B7">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C7">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D7">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B8">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C8">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D8">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="9">
@@ -182,114 +182,114 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.54091826641518537</v>
+        <v>0.92423442388829957</v>
       </c>
       <c r="B11">
-        <v>0.41831235570981801</v>
+        <v>0.84303886054322097</v>
       </c>
       <c r="C11">
-        <v>0.45908173358481469</v>
+        <v>0.075765576111700358</v>
       </c>
       <c r="D11">
-        <v>0.58168764429018194</v>
+        <v>0.15696113945677898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.026806539471723484</v>
+        <v>0.0057238865393198024</v>
       </c>
       <c r="B12">
-        <v>0.021189433070505383</v>
+        <v>0.0077316642286966901</v>
       </c>
       <c r="C12">
-        <v>0.026806539471723484</v>
+        <v>0.0057238865393198024</v>
       </c>
       <c r="D12">
-        <v>0.021189433070505383</v>
+        <v>0.0077316642286966901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>20.178593622118427</v>
+        <v>161.46973171801042</v>
       </c>
       <c r="B13">
-        <v>19.741554873975726</v>
+        <v>109.0371795265261</v>
       </c>
       <c r="C13">
-        <v>17.125736578907205</v>
+        <v>13.236736191612902</v>
       </c>
       <c r="D13">
-        <v>27.451779495689369</v>
+        <v>20.301080700608434</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>7.6808114516394125e-75</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>3.2208367723367703e-72</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>4.8913488374570453e-57</v>
+        <v>3.2986284087546594e-39</v>
       </c>
       <c r="D14">
-        <v>1.1986122974237488e-120</v>
+        <v>1.8833880552454359e-87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.48830678672068495</v>
+        <v>0.9130125521014697</v>
       </c>
       <c r="B15">
-        <v>0.37672521131533887</v>
+        <v>0.82788067316874459</v>
       </c>
       <c r="C15">
-        <v>0.40647025389031433</v>
+        <v>0.064543704324870513</v>
       </c>
       <c r="D15">
-        <v>0.54010049989570275</v>
+        <v>0.14180295208230256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.59352974610968579</v>
+        <v>0.93545629567512945</v>
       </c>
       <c r="B16">
-        <v>0.45989950010429714</v>
+        <v>0.85819704791769735</v>
       </c>
       <c r="C16">
-        <v>0.51169321327931505</v>
+        <v>0.086987447898530204</v>
       </c>
       <c r="D16">
-        <v>0.62327478868466113</v>
+        <v>0.17211932683125539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B17">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C17">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D17">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B18">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C18">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D18">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="19">
@@ -308,114 +308,114 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.79211381144929038</v>
+        <v>0.96567026678404688</v>
       </c>
       <c r="B21">
-        <v>0.85189620259120924</v>
+        <v>0.95975168355100227</v>
       </c>
       <c r="C21">
-        <v>0.20788618855070967</v>
+        <v>0.034329733215953236</v>
       </c>
       <c r="D21">
-        <v>0.14810379740879095</v>
+        <v>0.04024831644899772</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.021901047468481618</v>
+        <v>0.0040228163530804462</v>
       </c>
       <c r="B22">
-        <v>0.015462220136019698</v>
+        <v>0.0044623530156561453</v>
       </c>
       <c r="C22">
-        <v>0.021901047468481618</v>
+        <v>0.0040228163530804462</v>
       </c>
       <c r="D22">
-        <v>0.015462220136019698</v>
+        <v>0.0044623530156561453</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>36.167850537251361</v>
+        <v>240.04830994698304</v>
       </c>
       <c r="B23">
-        <v>55.095335281554547</v>
+        <v>215.07748942849611</v>
       </c>
       <c r="C23">
-        <v>9.492066023320767</v>
+        <v>8.5337560064519131</v>
       </c>
       <c r="D23">
-        <v>9.5784302710694682</v>
+        <v>9.0195276590145799</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>7.4575389783613473e-177</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>6.7898199231686719e-289</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2.0187058365367935e-20</v>
+        <v>1.957268624011337e-17</v>
       </c>
       <c r="D24">
-        <v>9.4869539942868983e-21</v>
+        <v>2.8227982259210293e-19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.74913002701147657</v>
+        <v>0.95778340022473951</v>
       </c>
       <c r="B25">
-        <v>0.82154949254397636</v>
+        <v>0.95100309060366239</v>
       </c>
       <c r="C25">
-        <v>0.16490240411289586</v>
+        <v>0.026442866656645827</v>
       </c>
       <c r="D25">
-        <v>0.11775708736155809</v>
+        <v>0.031499723501657861</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.83509759588710419</v>
+        <v>0.97355713334335425</v>
       </c>
       <c r="B26">
-        <v>0.88224291263844212</v>
+        <v>0.96850027649834214</v>
       </c>
       <c r="C26">
-        <v>0.25086997298852348</v>
+        <v>0.042216599775260641</v>
       </c>
       <c r="D26">
-        <v>0.17845050745602381</v>
+        <v>0.048996909396337579</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B27">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C27">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D27">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B28">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C28">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D28">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="29">
@@ -434,162 +434,162 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.62135922330097082</v>
+        <v>0.97804054054054057</v>
       </c>
       <c r="B31">
-        <v>0.67313915857605178</v>
+        <v>0.91939345570630482</v>
       </c>
       <c r="C31">
-        <v>0.75416666666666665</v>
+        <v>0.89649122807017556</v>
       </c>
       <c r="D31">
-        <v>0.37864077669902912</v>
+        <v>0.021959459459459461</v>
       </c>
       <c r="E31">
-        <v>0.32686084142394822</v>
+        <v>0.080606544293695126</v>
       </c>
       <c r="F31">
-        <v>0.24583333333333329</v>
+        <v>0.10350877192982458</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.047793237824460967</v>
+        <v>0.0034775050598492147</v>
       </c>
       <c r="B32">
-        <v>0.026684227537026834</v>
+        <v>0.0076906017058189103</v>
       </c>
       <c r="C32">
-        <v>0.019653207199862837</v>
+        <v>0.0090221319524765448</v>
       </c>
       <c r="D32">
-        <v>0.047793237824460967</v>
+        <v>0.0034775050598492147</v>
       </c>
       <c r="E32">
-        <v>0.026684227537026834</v>
+        <v>0.0076906017058189103</v>
       </c>
       <c r="F32">
-        <v>0.019653207199862837</v>
+        <v>0.0090221319524765448</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>13.000986155889905</v>
+        <v>281.24776922192274</v>
       </c>
       <c r="B33">
-        <v>25.226106232305543</v>
+        <v>119.54766231238678</v>
       </c>
       <c r="C33">
-        <v>38.373719820749159</v>
+        <v>99.365785469818107</v>
       </c>
       <c r="D33">
-        <v>7.9224759387454116</v>
+        <v>6.3147167528238271</v>
       </c>
       <c r="E33">
-        <v>12.249215045494518</v>
+        <v>10.481175254818632</v>
       </c>
       <c r="F33">
-        <v>12.508560604553592</v>
+        <v>11.472761923129685</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1.6648143613026285e-35</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>2.4809464345812274e-106</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>8.520133256350475e-191</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>6.9399968467795027e-15</v>
+        <v>2.9898076347412208e-10</v>
       </c>
       <c r="E34">
-        <v>5.4688959650703838e-32</v>
+        <v>2.1760470618109486e-25</v>
       </c>
       <c r="F34">
-        <v>3.4753479953528702e-33</v>
+        <v>5.0833026866234374e-30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.52755849366973984</v>
+        <v>0.97122277508491761</v>
       </c>
       <c r="B35">
-        <v>0.62076773268914842</v>
+        <v>0.90431577278694175</v>
       </c>
       <c r="C35">
-        <v>0.71559457448676866</v>
+        <v>0.87880303538517801</v>
       </c>
       <c r="D35">
-        <v>0.28484004706779814</v>
+        <v>0.01514169400383648</v>
       </c>
       <c r="E35">
-        <v>0.27448941553704487</v>
+        <v>0.065528861374332004</v>
       </c>
       <c r="F35">
-        <v>0.2072612411534353</v>
+        <v>0.085820579244827014</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.7151599529322018</v>
+        <v>0.98485830599616353</v>
       </c>
       <c r="B36">
-        <v>0.72551058446295513</v>
+        <v>0.93447113862566789</v>
       </c>
       <c r="C36">
-        <v>0.79273875884656464</v>
+        <v>0.91417942075517311</v>
       </c>
       <c r="D36">
-        <v>0.47244150633026011</v>
+        <v>0.028777224915082441</v>
       </c>
       <c r="E36">
-        <v>0.37923226731085158</v>
+        <v>0.095684227213058248</v>
       </c>
       <c r="F36">
-        <v>0.28440542551323128</v>
+        <v>0.12119696461482214</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B37">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C37">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D37">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E37">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F37">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B38">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C38">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D38">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E38">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F38">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="39">
@@ -614,162 +614,162 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.67961165048543692</v>
+        <v>0.98141891891891897</v>
       </c>
       <c r="B41">
-        <v>0.50161812297734631</v>
+        <v>0.87709497206703912</v>
       </c>
       <c r="C41">
-        <v>0.38541666666666669</v>
+        <v>0.74122807017543857</v>
       </c>
       <c r="D41">
-        <v>0.32038834951456313</v>
+        <v>0.018581081081081082</v>
       </c>
       <c r="E41">
-        <v>0.49838187702265369</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="F41">
-        <v>0.61458333333333337</v>
+        <v>0.25877192982456143</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.045978008146349697</v>
+        <v>0.0032043594062398429</v>
       </c>
       <c r="B42">
-        <v>0.028443857247906029</v>
+        <v>0.0092753989871120334</v>
       </c>
       <c r="C42">
-        <v>0.022214421916583002</v>
+        <v>0.012971257637610083</v>
       </c>
       <c r="D42">
-        <v>0.045978008146349697</v>
+        <v>0.0032043594062398429</v>
       </c>
       <c r="E42">
-        <v>0.028443857247906029</v>
+        <v>0.0092753989871120334</v>
       </c>
       <c r="F42">
-        <v>0.022214421916583002</v>
+        <v>0.012971257637610083</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>14.78123298256436</v>
+        <v>306.2761677132109</v>
       </c>
       <c r="B43">
-        <v>17.635376194073476</v>
+        <v>94.561427846472554</v>
       </c>
       <c r="C43">
-        <v>17.349840032477022</v>
+        <v>57.143886189281467</v>
       </c>
       <c r="D43">
-        <v>6.9682955489231979</v>
+        <v>5.7986882011107053</v>
       </c>
       <c r="E43">
-        <v>17.521599573466549</v>
+        <v>13.25064594027004</v>
       </c>
       <c r="F43">
-        <v>27.665961132868762</v>
+        <v>19.949640740636728</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2.2725561528263598e-44</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>6.4395598382038436e-60</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>2.6780733835183016e-58</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>6.2454592030758924e-12</v>
+        <v>7.1786283910956827e-09</v>
       </c>
       <c r="E44">
-        <v>2.8541927322591078e-59</v>
+        <v>2.7613966562724547e-39</v>
       </c>
       <c r="F44">
-        <v>4.9480779146790951e-122</v>
+        <v>1.2059326139411022e-84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.58937355598850005</v>
+        <v>0.97513666469030547</v>
       </c>
       <c r="B45">
-        <v>0.4457931844540427</v>
+        <v>0.85891024085511825</v>
       </c>
       <c r="C45">
-        <v>0.34181784225211687</v>
+        <v>0.71579748396041276</v>
       </c>
       <c r="D45">
-        <v>0.23015025501762632</v>
+        <v>0.012298826852467585</v>
       </c>
       <c r="E45">
-        <v>0.44255693849935007</v>
+        <v>0.10472029672104002</v>
       </c>
       <c r="F45">
-        <v>0.57098450891878361</v>
+        <v>0.23334134360953568</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.7698497449823738</v>
+        <v>0.98770117314753247</v>
       </c>
       <c r="B46">
-        <v>0.55744306150064993</v>
+        <v>0.89527970327896</v>
       </c>
       <c r="C46">
-        <v>0.4290154910812165</v>
+        <v>0.76665865639046438</v>
       </c>
       <c r="D46">
-        <v>0.41062644401149995</v>
+        <v>0.024863335309694579</v>
       </c>
       <c r="E46">
-        <v>0.5542068155459573</v>
+        <v>0.14108975914488178</v>
       </c>
       <c r="F46">
-        <v>0.65818215774788313</v>
+        <v>0.28420251603958718</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B47">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C47">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D47">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E47">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F47">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B48">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C48">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D48">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E48">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F48">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="49">
@@ -794,162 +794,162 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.69902912621359226</v>
+        <v>0.98254504504504503</v>
       </c>
       <c r="B51">
-        <v>0.8252427184466018</v>
+        <v>0.95690343176376691</v>
       </c>
       <c r="C51">
-        <v>0.86041666666666683</v>
+        <v>0.94122807017543875</v>
       </c>
       <c r="D51">
-        <v>0.30097087378640774</v>
+        <v>0.017454954954954954</v>
       </c>
       <c r="E51">
-        <v>0.17475728155339806</v>
+        <v>0.043096568236233042</v>
       </c>
       <c r="F51">
-        <v>0.13958333333333334</v>
+        <v>0.058771929824561406</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.04519509026073798</v>
+        <v>0.0031075213449068199</v>
       </c>
       <c r="B52">
-        <v>0.021603755374242497</v>
+        <v>0.0057369341500259508</v>
       </c>
       <c r="C52">
-        <v>0.015817963574478171</v>
+        <v>0.0069659441048058341</v>
       </c>
       <c r="D52">
-        <v>0.04519509026073798</v>
+        <v>0.0031075213449068199</v>
       </c>
       <c r="E52">
-        <v>0.021603755374242497</v>
+        <v>0.0057369341500259508</v>
       </c>
       <c r="F52">
-        <v>0.015817963574478171</v>
+        <v>0.0069659441048058341</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>15.466926212134485</v>
+        <v>316.18287889009076</v>
       </c>
       <c r="B53">
-        <v>38.199040127556422</v>
+        <v>166.79700459163163</v>
       </c>
       <c r="C53">
-        <v>54.394907575519035</v>
+        <v>135.11852177023377</v>
       </c>
       <c r="D53">
-        <v>6.6593710080023474</v>
+        <v>5.6170024330044779</v>
       </c>
       <c r="E53">
-        <v>8.0892084976001843</v>
+        <v>7.5121253110492994</v>
       </c>
       <c r="F53">
-        <v>8.8243554662464287</v>
+        <v>8.4370372400798335</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>5.7428471677618397e-48</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>1.0658597034064662e-189</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>4.393741241643066e-285</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>4.8116181236823377e-11</v>
+        <v>2.0696666846414636e-08</v>
       </c>
       <c r="E54">
-        <v>1.9609240505586673e-15</v>
+        <v>7.0776580971895795e-14</v>
       </c>
       <c r="F54">
-        <v>5.7522050506332606e-18</v>
+        <v>4.4335982711520996e-17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.61032761455252538</v>
+        <v>0.97645264508780805</v>
       </c>
       <c r="B55">
-        <v>0.78284241017869405</v>
+        <v>0.945655979697967</v>
       </c>
       <c r="C55">
-        <v>0.8293717617364782</v>
+        <v>0.92757110281919142</v>
       </c>
       <c r="D55">
-        <v>0.21226936212534092</v>
+        <v>0.011362554997717961</v>
       </c>
       <c r="E55">
-        <v>0.13235697328549031</v>
+        <v>0.031849116170433123</v>
       </c>
       <c r="F55">
-        <v>0.10853842840314468</v>
+        <v>0.045114962468314042</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.78773063787465913</v>
+        <v>0.98863744500228201</v>
       </c>
       <c r="B56">
-        <v>0.86764302671450955</v>
+        <v>0.96815088382956682</v>
       </c>
       <c r="C56">
-        <v>0.89146157159685546</v>
+        <v>0.95488503753168608</v>
       </c>
       <c r="D56">
-        <v>0.38967238544747457</v>
+        <v>0.023547354912191946</v>
       </c>
       <c r="E56">
-        <v>0.21715758982130581</v>
+        <v>0.054344020302032961</v>
       </c>
       <c r="F56">
-        <v>0.170628238263522</v>
+        <v>0.072428897180808777</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B57">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C57">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D57">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E57">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F57">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B58">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C58">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D58">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E58">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F58">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="59">
@@ -974,258 +974,258 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.77083033595991557</v>
+        <v>0.94462340653275378</v>
       </c>
       <c r="B61">
-        <v>0.52180953470633107</v>
+        <v>0.89706724202300836</v>
       </c>
       <c r="C61">
-        <v>0.6483741666666667</v>
+        <v>0.94795909090909092</v>
       </c>
       <c r="D61">
-        <v>0.64011670694302447</v>
+        <v>0.94042052427015776</v>
       </c>
       <c r="E61">
-        <v>0.60864253246753242</v>
+        <v>0.93078097202872134</v>
       </c>
       <c r="F61">
-        <v>0.22916966404008451</v>
+        <v>0.055376593467246403</v>
       </c>
       <c r="G61">
-        <v>0.47819046529366893</v>
+        <v>0.10293275797699153</v>
       </c>
       <c r="H61">
-        <v>0.35162583333333336</v>
+        <v>0.052040909090909096</v>
       </c>
       <c r="I61">
-        <v>0.35988329305697553</v>
+        <v>0.059579475729842256</v>
       </c>
       <c r="J61">
-        <v>0.39135746753246758</v>
+        <v>0.069219027971278546</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.018311724714554525</v>
+        <v>0.004936432568186289</v>
       </c>
       <c r="B62">
-        <v>0.042420337154967035</v>
+        <v>0.011719009135835836</v>
       </c>
       <c r="C62">
-        <v>0.11267220438295794</v>
+        <v>0.023115857893618544</v>
       </c>
       <c r="D62">
-        <v>0.042910641460531376</v>
+        <v>0.008556501857154385</v>
       </c>
       <c r="E62">
-        <v>0.091811681874770346</v>
+        <v>0.019798102494826737</v>
       </c>
       <c r="F62">
-        <v>0.018311724714554525</v>
+        <v>0.004936432568186289</v>
       </c>
       <c r="G62">
-        <v>0.042420337154967035</v>
+        <v>0.011719009135835836</v>
       </c>
       <c r="H62">
-        <v>0.11267220438295794</v>
+        <v>0.023115857893618544</v>
       </c>
       <c r="I62">
-        <v>0.042910641460531376</v>
+        <v>0.008556501857154385</v>
       </c>
       <c r="J62">
-        <v>0.091811681874770346</v>
+        <v>0.019798102494826737</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>42.09490629504954</v>
+        <v>191.35750230248178</v>
       </c>
       <c r="B63">
-        <v>12.300928509834627</v>
+        <v>76.548045284805283</v>
       </c>
       <c r="C63">
-        <v>5.7545174536829737</v>
+        <v>41.009037833321699</v>
       </c>
       <c r="D63">
-        <v>14.917435050039863</v>
+        <v>109.90712559523841</v>
       </c>
       <c r="E63">
-        <v>6.6292493508365418</v>
+        <v>47.013645488093381</v>
       </c>
       <c r="F63">
-        <v>12.514914220938232</v>
+        <v>11.217937792593508</v>
       </c>
       <c r="G63">
-        <v>11.272670076778898</v>
+        <v>8.7834011206827203</v>
       </c>
       <c r="H63">
-        <v>3.1207859583380797</v>
+        <v>2.2513077096427261</v>
       </c>
       <c r="I63">
-        <v>8.3868075798398696</v>
+        <v>6.9630646640981926</v>
       </c>
       <c r="J63">
-        <v>4.2626108087887209</v>
+        <v>3.4962455613797103</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>7.4223311641352246e-214</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>3.1668563369565706e-32</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>1.1953599699078984e-08</v>
+        <v>3.9932239839067398e-309</v>
       </c>
       <c r="D64">
-        <v>4.4623188819034717e-45</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>5.8464616014296718e-11</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>3.2468216989999021e-33</v>
+        <v>8.5783276505562467e-29</v>
       </c>
       <c r="G64">
-        <v>1.2137715559308031e-27</v>
+        <v>2.2777327013670056e-18</v>
       </c>
       <c r="H64">
-        <v>0.0018619322585602493</v>
+        <v>0.024417960308549692</v>
       </c>
       <c r="I64">
-        <v>1.9459073398319225e-16</v>
+        <v>3.8517737350809208e-12</v>
       </c>
       <c r="J64">
-        <v>2.2364130566908869e-05</v>
+        <v>0.00047677692225327884</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.73489108561365946</v>
+        <v>0.93494536470156464</v>
       </c>
       <c r="B65">
-        <v>0.43855385341197417</v>
+        <v>0.87409173105023752</v>
       </c>
       <c r="C65">
-        <v>0.4272396409185184</v>
+        <v>0.90263967520390265</v>
       </c>
       <c r="D65">
-        <v>0.55589873676227342</v>
+        <v>0.92364521502439334</v>
       </c>
       <c r="E65">
-        <v>0.4284496193998969</v>
+        <v>0.89196612720374624</v>
       </c>
       <c r="F65">
-        <v>0.1932304136938284</v>
+        <v>0.045698551636057225</v>
       </c>
       <c r="G65">
-        <v>0.39493478399931203</v>
+        <v>0.079957247004220716</v>
       </c>
       <c r="H65">
-        <v>0.13049130758518507</v>
+        <v>0.0067214933857207906</v>
       </c>
       <c r="I65">
-        <v>0.27566532287622453</v>
+        <v>0.042804166484077852</v>
       </c>
       <c r="J65">
-        <v>0.21116455446483207</v>
+        <v>0.030404183146303491</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.80676958630617168</v>
+        <v>0.95430144836394293</v>
       </c>
       <c r="B66">
-        <v>0.60506521600068797</v>
+        <v>0.9200427529957792</v>
       </c>
       <c r="C66">
-        <v>0.86950869241481499</v>
+        <v>0.99327850661427919</v>
       </c>
       <c r="D66">
-        <v>0.72433467712377553</v>
+        <v>0.95719583351592219</v>
       </c>
       <c r="E66">
-        <v>0.78883544553516793</v>
+        <v>0.96959581685369645</v>
       </c>
       <c r="F66">
-        <v>0.26510891438634065</v>
+        <v>0.065054635298435581</v>
       </c>
       <c r="G66">
-        <v>0.56144614658802583</v>
+        <v>0.12590826894976234</v>
       </c>
       <c r="H66">
-        <v>0.5727603590814816</v>
+        <v>0.097360324796097408</v>
       </c>
       <c r="I66">
-        <v>0.44410126323772653</v>
+        <v>0.07635478497560666</v>
       </c>
       <c r="J66">
-        <v>0.5715503806001031</v>
+        <v>0.10803387279625359</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B67">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C67">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D67">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E67">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F67">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="G67">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="H67">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="I67">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="J67">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B68">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C68">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D68">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E68">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F68">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="G68">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="H68">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="I68">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="J68">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="69">
@@ -1262,258 +1262,258 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.38036707682402837</v>
+        <v>0.85232966017720035</v>
       </c>
       <c r="B71">
-        <v>0.65890803129844255</v>
+        <v>0.92481808604297799</v>
       </c>
       <c r="C71">
-        <v>0.53671749999999996</v>
+        <v>0.91394114832535889</v>
       </c>
       <c r="D71">
-        <v>0.59162864578492425</v>
+        <v>0.93216999478189311</v>
       </c>
       <c r="E71">
-        <v>0.57278181818181817</v>
+        <v>0.92301728110599068</v>
       </c>
       <c r="F71">
-        <v>0.61963292317597163</v>
+        <v>0.1476703398227997</v>
       </c>
       <c r="G71">
-        <v>0.34109196870155756</v>
+        <v>0.075181913957021923</v>
       </c>
       <c r="H71">
-        <v>0.46328250000000004</v>
+        <v>0.086058851674641154</v>
       </c>
       <c r="I71">
-        <v>0.40837135421507575</v>
+        <v>0.067830005218106823</v>
       </c>
       <c r="J71">
-        <v>0.42721818181818183</v>
+        <v>0.076982718894009219</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.020757608395406888</v>
+        <v>0.00722059235772049</v>
       </c>
       <c r="B72">
-        <v>0.040152892111202515</v>
+        <v>0.010356155853015849</v>
       </c>
       <c r="C72">
-        <v>0.12361897912727136</v>
+        <v>0.028883418414406409</v>
       </c>
       <c r="D72">
-        <v>0.043937210744734348</v>
+        <v>0.009081628314697901</v>
       </c>
       <c r="E72">
-        <v>0.090559272139409674</v>
+        <v>0.020797414341613023</v>
       </c>
       <c r="F72">
-        <v>0.020757608395406888</v>
+        <v>0.00722059235772049</v>
       </c>
       <c r="G72">
-        <v>0.040152892111202515</v>
+        <v>0.010356155853015849</v>
       </c>
       <c r="H72">
-        <v>0.12361897912727136</v>
+        <v>0.028883418414406409</v>
       </c>
       <c r="I72">
-        <v>0.043937210744734348</v>
+        <v>0.009081628314697901</v>
       </c>
       <c r="J72">
-        <v>0.090559272139409674</v>
+        <v>0.020797414341613023</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>18.32422452425654</v>
+        <v>118.04151487181824</v>
       </c>
       <c r="B73">
-        <v>16.409976882203448</v>
+        <v>89.301290862058508</v>
       </c>
       <c r="C73">
-        <v>4.341707914020426</v>
+        <v>31.642416254632288</v>
       </c>
       <c r="D73">
-        <v>13.465320983213026</v>
+        <v>102.64348666122454</v>
       </c>
       <c r="E73">
-        <v>6.3249384038782974</v>
+        <v>44.38134788992248</v>
       </c>
       <c r="F73">
-        <v>29.850882210162521</v>
+        <v>20.45127774938102</v>
       </c>
       <c r="G73">
-        <v>8.4948294074785728</v>
+        <v>7.2596352376377142</v>
       </c>
       <c r="H73">
-        <v>3.7476648267983967</v>
+        <v>2.9795244607098481</v>
       </c>
       <c r="I73">
-        <v>9.294430558817778</v>
+        <v>7.4689254908538034</v>
       </c>
       <c r="J73">
-        <v>4.7175531751239044</v>
+        <v>3.7015523963465227</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>7.1199217820610992e-64</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>4.6026554185066763e-53</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>1.5763425989750989e-05</v>
+        <v>4.0274753433065724e-197</v>
       </c>
       <c r="D74">
-        <v>9.5382595173326305e-38</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>4.0080267495752053e-10</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>3.4982487277423543e-136</v>
+        <v>1.1570979518233633e-88</v>
       </c>
       <c r="G74">
-        <v>8.2702306277216758e-17</v>
+        <v>4.6075860271414917e-13</v>
       </c>
       <c r="H74">
-        <v>0.00019001074432484249</v>
+        <v>0.0029036295640210482</v>
       </c>
       <c r="I74">
-        <v>1.1133477928931759e-19</v>
+        <v>9.7936436043659016e-14</v>
       </c>
       <c r="J74">
-        <v>2.7709455241425717e-06</v>
+        <v>0.00021705473890844368</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.33962744708728765</v>
+        <v>0.83817344636920765</v>
       </c>
       <c r="B75">
-        <v>0.58010251929968781</v>
+        <v>0.90451449470016609</v>
       </c>
       <c r="C75">
-        <v>0.29409843993558071</v>
+        <v>0.85731423652596006</v>
       </c>
       <c r="D75">
-        <v>0.50539589375932481</v>
+        <v>0.9143651574806817</v>
       </c>
       <c r="E75">
-        <v>0.39504692956118848</v>
+        <v>0.88224325184528984</v>
       </c>
       <c r="F75">
-        <v>0.5788932934392309</v>
+        <v>0.13351412601480697</v>
       </c>
       <c r="G75">
-        <v>0.26228645670280287</v>
+        <v>0.054878322614209996</v>
       </c>
       <c r="H75">
-        <v>0.2206634399355808</v>
+        <v>0.029431939875242306</v>
       </c>
       <c r="I75">
-        <v>0.32213860218947626</v>
+        <v>0.050025167916895361</v>
       </c>
       <c r="J75">
-        <v>0.24948329319755214</v>
+        <v>0.036208689633308352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.4211067065607691</v>
+        <v>0.86648587398519306</v>
       </c>
       <c r="B76">
-        <v>0.73771354329719729</v>
+        <v>0.94512167738578989</v>
       </c>
       <c r="C76">
-        <v>0.7793365600644192</v>
+        <v>0.97056806012475771</v>
       </c>
       <c r="D76">
-        <v>0.67786139781052368</v>
+        <v>0.94997483208310451</v>
       </c>
       <c r="E76">
-        <v>0.75051670680244786</v>
+        <v>0.96379131036669152</v>
       </c>
       <c r="F76">
-        <v>0.66037255291271235</v>
+        <v>0.16182655363079243</v>
       </c>
       <c r="G76">
-        <v>0.41989748070031224</v>
+        <v>0.09548550529983385</v>
       </c>
       <c r="H76">
-        <v>0.70590156006441929</v>
+        <v>0.14268576347403999</v>
       </c>
       <c r="I76">
-        <v>0.49460410624067525</v>
+        <v>0.085634842519318286</v>
       </c>
       <c r="J76">
-        <v>0.60495307043881152</v>
+        <v>0.11775674815471009</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B77">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C77">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D77">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E77">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F77">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="G77">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="H77">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="I77">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="J77">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B78">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C78">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D78">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E78">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F78">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="G78">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="H78">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="I78">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="J78">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="79">
@@ -1550,258 +1550,258 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.84880258721605628</v>
+        <v>0.96323549503884998</v>
       </c>
       <c r="B81">
-        <v>0.81928243399522649</v>
+        <v>0.96150981480355979</v>
       </c>
       <c r="C81">
-        <v>0.81490833333333335</v>
+        <v>0.96470000000000022</v>
       </c>
       <c r="D81">
-        <v>0.76825464727205128</v>
+        <v>0.96114312213891373</v>
       </c>
       <c r="E81">
-        <v>0.81857564935064919</v>
+        <v>0.96762388382809994</v>
       </c>
       <c r="F81">
-        <v>0.1511974127839438</v>
+        <v>0.036764504961150017</v>
       </c>
       <c r="G81">
-        <v>0.18071756600477351</v>
+        <v>0.038490185196440201</v>
       </c>
       <c r="H81">
-        <v>0.18509166666666665</v>
+        <v>0.035299999999999998</v>
       </c>
       <c r="I81">
-        <v>0.23174535272794866</v>
+        <v>0.038856877861086207</v>
       </c>
       <c r="J81">
-        <v>0.18142435064935067</v>
+        <v>0.032376116171900116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.015332904654300337</v>
+        <v>0.0040208739306976321</v>
       </c>
       <c r="B82">
-        <v>0.032401692161742345</v>
+        <v>0.007526638956851941</v>
       </c>
       <c r="C82">
-        <v>0.076524703728085716</v>
+        <v>0.018287463101189245</v>
       </c>
       <c r="D82">
-        <v>0.037577283397359253</v>
+        <v>0.0070837221223822586</v>
       </c>
       <c r="E82">
-        <v>0.061276411549142137</v>
+        <v>0.013219763534996466</v>
       </c>
       <c r="F82">
-        <v>0.015332904654300337</v>
+        <v>0.0040208739306976321</v>
       </c>
       <c r="G82">
-        <v>0.032401692161742345</v>
+        <v>0.007526638956851941</v>
       </c>
       <c r="H82">
-        <v>0.076524703728085716</v>
+        <v>0.018287463101189245</v>
       </c>
       <c r="I82">
-        <v>0.037577283397359253</v>
+        <v>0.0070837221223822586</v>
       </c>
       <c r="J82">
-        <v>0.061276411549142137</v>
+        <v>0.013219763534996466</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>55.358238139046748</v>
+        <v>239.55874062227215</v>
       </c>
       <c r="B83">
-        <v>25.285174302179747</v>
+        <v>127.74756705026232</v>
       </c>
       <c r="C83">
-        <v>10.648957704285102</v>
+        <v>52.751986137282501</v>
       </c>
       <c r="D83">
-        <v>20.444656393815858</v>
+        <v>135.68334634443295</v>
       </c>
       <c r="E83">
-        <v>13.358739989109385</v>
+        <v>73.195249012323472</v>
       </c>
       <c r="F83">
-        <v>9.8609765202927981</v>
+        <v>9.1434115057597136</v>
       </c>
       <c r="G83">
-        <v>5.5774113618100536</v>
+        <v>5.1138609699619408</v>
       </c>
       <c r="H83">
-        <v>2.418717847302625</v>
+        <v>1.9302841408169085</v>
       </c>
       <c r="I83">
-        <v>6.1671662178813751</v>
+        <v>5.4853757939362282</v>
       </c>
       <c r="J83">
-        <v>2.9607535112243464</v>
+        <v>2.4490692353302195</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2.5600696478100152e-290</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>1.0394462714678619e-106</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>5.2584069487577382e-25</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>1.8988762385694673e-76</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>3.1523574986793088e-37</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>7.7244539822649319e-22</v>
+        <v>9.2446286450512287e-20</v>
       </c>
       <c r="G84">
-        <v>3.2394940485829578e-08</v>
+        <v>3.2982242050559366e-07</v>
       </c>
       <c r="H84">
-        <v>0.015775248407922157</v>
+        <v>0.0536394392777595</v>
       </c>
       <c r="I84">
-        <v>1.0541976051544459e-09</v>
+        <v>4.3706386071519563e-08</v>
       </c>
       <c r="J84">
-        <v>0.003150448382361335</v>
+        <v>0.014363510005811146</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.81870967639001124</v>
+        <v>0.95535243666385683</v>
       </c>
       <c r="B85">
-        <v>0.75568970614487707</v>
+        <v>0.94675358635994211</v>
       </c>
       <c r="C85">
-        <v>0.66471819407404198</v>
+        <v>0.92884681443837402</v>
       </c>
       <c r="D85">
-        <v>0.69450411768504283</v>
+        <v>0.94725524702384367</v>
       </c>
       <c r="E85">
-        <v>0.69831235742629738</v>
+        <v>0.94170609345562206</v>
       </c>
       <c r="F85">
-        <v>0.12110450195789871</v>
+        <v>0.028881446586156899</v>
       </c>
       <c r="G85">
-        <v>0.11712483815442414</v>
+        <v>0.023733956752822534</v>
       </c>
       <c r="H85">
-        <v>0.034901527407375316</v>
+        <v>-0.00055318556162620158</v>
       </c>
       <c r="I85">
-        <v>0.15799482314094021</v>
+        <v>0.024969002746016166</v>
       </c>
       <c r="J85">
-        <v>0.061161058724998857</v>
+        <v>0.0064583257994221925</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.87889549804210132</v>
+        <v>0.97111855341384312</v>
       </c>
       <c r="B86">
-        <v>0.88287516184557591</v>
+        <v>0.97626604324717747</v>
       </c>
       <c r="C86">
-        <v>0.96509847259262471</v>
+        <v>1.0005531855616265</v>
       </c>
       <c r="D86">
-        <v>0.84200517685905973</v>
+        <v>0.97503099725398379</v>
       </c>
       <c r="E86">
-        <v>0.938838941275001</v>
+        <v>0.99354167420057782</v>
       </c>
       <c r="F86">
-        <v>0.1812903236099889</v>
+        <v>0.044647563336143135</v>
       </c>
       <c r="G86">
-        <v>0.24431029385512287</v>
+        <v>0.053246413640057867</v>
       </c>
       <c r="H86">
-        <v>0.33528180592595802</v>
+        <v>0.071153185561626198</v>
       </c>
       <c r="I86">
-        <v>0.30549588231495711</v>
+        <v>0.052744752976156245</v>
       </c>
       <c r="J86">
-        <v>0.30168764257370251</v>
+        <v>0.058293906544378035</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B87">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C87">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D87">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E87">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F87">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="G87">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="H87">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="I87">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="J87">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B88">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C88">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D88">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E88">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F88">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="G88">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="H88">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="I88">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="J88">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="89">
@@ -1838,162 +1838,162 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.64992063655672161</v>
+        <v>0.91669558292282427</v>
       </c>
       <c r="B91">
-        <v>0.70399057621844108</v>
+        <v>0.93459663933712511</v>
       </c>
       <c r="C91">
-        <v>0.86976182787983158</v>
+        <v>0.97757305268391459</v>
       </c>
       <c r="D91">
-        <v>0.35007936344327839</v>
+        <v>0.083304417077175702</v>
       </c>
       <c r="E91">
-        <v>0.29600942378155898</v>
+        <v>0.065403360662874971</v>
       </c>
       <c r="F91">
-        <v>0.13023817212016839</v>
+        <v>0.02242694731608557</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.028230046489066383</v>
+        <v>0.00809044465170667</v>
       </c>
       <c r="B92">
-        <v>0.021142276098318546</v>
+        <v>0.0054285480665854117</v>
       </c>
       <c r="C92">
-        <v>0.031227088519911302</v>
+        <v>0.0055600209569264215</v>
       </c>
       <c r="D92">
-        <v>0.028230046489066383</v>
+        <v>0.00809044465170667</v>
       </c>
       <c r="E92">
-        <v>0.021142276098318546</v>
+        <v>0.0054285480665854117</v>
       </c>
       <c r="F92">
-        <v>0.031227088519911302</v>
+        <v>0.0055600209569264215</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>23.022301320277268</v>
+        <v>113.3059581254843</v>
       </c>
       <c r="B93">
-        <v>33.29776666167129</v>
+        <v>172.16327973402136</v>
       </c>
       <c r="C93">
-        <v>27.852799255532457</v>
+        <v>175.82182877676001</v>
       </c>
       <c r="D93">
-        <v>12.400948881854148</v>
+        <v>10.296642602901033</v>
       </c>
       <c r="E93">
-        <v>14.000830487929383</v>
+        <v>12.048039339552917</v>
       </c>
       <c r="F93">
-        <v>4.1706793137991314</v>
+        <v>4.0336084143976292</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2.3298836232737562e-92</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>1.7848427977604054e-158</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>3.0639326701203627e-123</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1.0958332378093069e-32</v>
+        <v>1.434191833150773e-24</v>
       </c>
       <c r="E94">
-        <v>2.142392045770724e-40</v>
+        <v>6.9522369997545754e-33</v>
       </c>
       <c r="F94">
-        <v>3.3345502737306734e-05</v>
+        <v>5.5910655561815185e-05</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.59451533072823204</v>
+        <v>0.90083399448003787</v>
       </c>
       <c r="B95">
-        <v>0.66249598379574026</v>
+        <v>0.92395378854450549</v>
       </c>
       <c r="C95">
-        <v>0.80847441943546028</v>
+        <v>0.96667244487449955</v>
       </c>
       <c r="D95">
-        <v>0.29467405761478876</v>
+        <v>0.067442828634389329</v>
       </c>
       <c r="E95">
-        <v>0.25451483135885816</v>
+        <v>0.054760509870255353</v>
       </c>
       <c r="F95">
-        <v>0.068950763675797028</v>
+        <v>0.011526339506670497</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.70532594238521118</v>
+        <v>0.93255717136561067</v>
       </c>
       <c r="B96">
-        <v>0.74548516864114189</v>
+        <v>0.94523949012974473</v>
       </c>
       <c r="C96">
-        <v>0.93104923632420289</v>
+        <v>0.98847366049332963</v>
       </c>
       <c r="D96">
-        <v>0.40548466927176802</v>
+        <v>0.099166005519962075</v>
       </c>
       <c r="E96">
-        <v>0.33750401620425979</v>
+        <v>0.076046211455494589</v>
       </c>
       <c r="F96">
-        <v>0.19152558056453975</v>
+        <v>0.033327555125500646</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B97">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C97">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D97">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E97">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F97">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B98">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C98">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D98">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E98">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F98">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="99">
@@ -2018,162 +2018,162 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.54190612193903054</v>
+        <v>0.89252463409222016</v>
       </c>
       <c r="B101">
-        <v>0.45780317221302014</v>
+        <v>0.87973915394345747</v>
       </c>
       <c r="C101">
-        <v>0.29734216178721773</v>
+        <v>0.87624124122084057</v>
       </c>
       <c r="D101">
-        <v>0.45809387806096946</v>
+        <v>0.1074753659077797</v>
       </c>
       <c r="E101">
-        <v>0.54219682778697986</v>
+        <v>0.12026084605654272</v>
       </c>
       <c r="F101">
-        <v>0.70265783821278216</v>
+        <v>0.12375875877915936</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.029125514208872973</v>
+        <v>0.0087317450168513701</v>
       </c>
       <c r="B102">
-        <v>0.022793240139641159</v>
+        <v>0.0068668351384427902</v>
       </c>
       <c r="C102">
-        <v>0.042396419786597396</v>
+        <v>0.011793411782587204</v>
       </c>
       <c r="D102">
-        <v>0.029125514208872973</v>
+        <v>0.0087317450168513701</v>
       </c>
       <c r="E102">
-        <v>0.022793240139641159</v>
+        <v>0.0068668351384427902</v>
       </c>
       <c r="F102">
-        <v>0.042396419786597396</v>
+        <v>0.011793411782587204</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>18.605890287558974</v>
+        <v>102.21606704842381</v>
       </c>
       <c r="B103">
-        <v>20.085041416153285</v>
+        <v>128.11420926918572</v>
       </c>
       <c r="C103">
-        <v>7.0133790372840696</v>
+        <v>74.299215305497739</v>
       </c>
       <c r="D103">
-        <v>15.728267483133841</v>
+        <v>12.308578147937588</v>
       </c>
       <c r="E103">
-        <v>23.787615295817957</v>
+        <v>17.51328576148321</v>
       </c>
       <c r="F103">
-        <v>16.573518277005796</v>
+        <v>10.493889390166746</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.6411033664071195e-65</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>2.8092918549648318e-74</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>4.605419283883181e-12</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>2.3096450131927548e-49</v>
+        <v>3.1817528577390352e-34</v>
       </c>
       <c r="E104">
-        <v>3.5120510260694845e-97</v>
+        <v>2.5579864362467166e-66</v>
       </c>
       <c r="F104">
-        <v>5.7918558765773836e-54</v>
+        <v>1.9087333059024729e-25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.48474333891706056</v>
+        <v>0.87540575474664173</v>
       </c>
       <c r="B105">
-        <v>0.41306833831013806</v>
+        <v>0.86627649304416221</v>
       </c>
       <c r="C105">
-        <v>0.21413342158130877</v>
+        <v>0.85311986136043383</v>
       </c>
       <c r="D105">
-        <v>0.40093109503899949</v>
+        <v>0.09035648656220123</v>
       </c>
       <c r="E105">
-        <v>0.49746199388409779</v>
+        <v>0.1067981851572475</v>
       </c>
       <c r="F105">
-        <v>0.6194490980068732</v>
+        <v>0.10063737891875264</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.59906890496100051</v>
+        <v>0.90964351343779859</v>
       </c>
       <c r="B106">
-        <v>0.50253800611590216</v>
+        <v>0.89320181484275274</v>
       </c>
       <c r="C106">
-        <v>0.38055090199312669</v>
+        <v>0.89936262108124732</v>
       </c>
       <c r="D106">
-        <v>0.51525666108293944</v>
+        <v>0.12459424525335817</v>
       </c>
       <c r="E106">
-        <v>0.58693166168986188</v>
+        <v>0.13372350695583793</v>
       </c>
       <c r="F106">
-        <v>0.78586657841869112</v>
+        <v>0.14688013863956606</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B107">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C107">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D107">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E107">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F107">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B108">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C108">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D108">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E108">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F108">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="109">
@@ -2198,162 +2198,162 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.80817324150424796</v>
+        <v>0.95388300004437954</v>
       </c>
       <c r="B111">
-        <v>0.8382062515685389</v>
+        <v>0.96430233871793691</v>
       </c>
       <c r="C111">
-        <v>0.83289601033295058</v>
+        <v>0.97286606406994669</v>
       </c>
       <c r="D111">
-        <v>0.19182675849575212</v>
+        <v>0.046116999955620644</v>
       </c>
       <c r="E111">
-        <v>0.16179374843146113</v>
+        <v>0.035697661282063087</v>
       </c>
       <c r="F111">
-        <v>0.16710398966704937</v>
+        <v>0.027133935930053393</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.023302224712891506</v>
+        <v>0.0062575338535428284</v>
       </c>
       <c r="B112">
-        <v>0.017050512127256823</v>
+        <v>0.0040421401323564986</v>
       </c>
       <c r="C112">
-        <v>0.035167094290595509</v>
+        <v>0.0061774710391124497</v>
       </c>
       <c r="D112">
-        <v>0.023302224712891506</v>
+        <v>0.0062575338535428284</v>
       </c>
       <c r="E112">
-        <v>0.017050512127256823</v>
+        <v>0.0040421401323564986</v>
       </c>
       <c r="F112">
-        <v>0.035167094290595509</v>
+        <v>0.0061774710391124497</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>34.682235342840109</v>
+        <v>152.43752928389185</v>
       </c>
       <c r="B113">
-        <v>49.16018036951445</v>
+        <v>238.56232271585426</v>
       </c>
       <c r="C113">
-        <v>23.683958744231141</v>
+        <v>157.4861392162388</v>
       </c>
       <c r="D113">
-        <v>8.2321220767229004</v>
+        <v>7.3698362701642566</v>
       </c>
       <c r="E113">
-        <v>9.4890843878418671</v>
+        <v>8.8313764771069323</v>
       </c>
       <c r="F113">
-        <v>4.7517144375427351</v>
+        <v>4.3924019648584007</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2.2755014698279047e-167</v>
+        <v>0</v>
       </c>
       <c r="B114">
-        <v>9.2732081438374616e-256</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>1.5876539208596677e-96</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>6.522196011491501e-16</v>
+        <v>2.049255465017979e-13</v>
       </c>
       <c r="E114">
-        <v>2.0718242177221402e-20</v>
+        <v>1.4965331539276605e-18</v>
       </c>
       <c r="F114">
-        <v>2.3511888255905353e-06</v>
+        <v>1.1488988817908461e-05</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.76243945614891817</v>
+        <v>0.94161489477642468</v>
       </c>
       <c r="B115">
-        <v>0.80474230246349876</v>
+        <v>0.95637758724040423</v>
       </c>
       <c r="C115">
-        <v>0.76387580467992711</v>
+        <v>0.96075492463844914</v>
       </c>
       <c r="D115">
-        <v>0.14609297314042236</v>
+        <v>0.033848894687665838</v>
       </c>
       <c r="E115">
-        <v>0.12832979932642097</v>
+        <v>0.027772909804530406</v>
       </c>
       <c r="F115">
-        <v>0.098083784014025885</v>
+        <v>0.01502279649855579</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.85390702685957776</v>
+        <v>0.96615110531233439</v>
       </c>
       <c r="B116">
-        <v>0.87167020067357903</v>
+        <v>0.9722270901954696</v>
       </c>
       <c r="C116">
-        <v>0.90191621598597405</v>
+        <v>0.98497720350144424</v>
       </c>
       <c r="D116">
-        <v>0.23756054385108188</v>
+        <v>0.058385105223575449</v>
       </c>
       <c r="E116">
-        <v>0.1952576975365013</v>
+        <v>0.043622412759595768</v>
       </c>
       <c r="F116">
-        <v>0.23612419532007284</v>
+        <v>0.039245075361550995</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B117">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C117">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D117">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E117">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F117">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B118">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C118">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D118">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E118">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F118">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="119">
@@ -2378,306 +2378,306 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.85217140091517063</v>
+        <v>0.98156546370341613</v>
       </c>
       <c r="B121">
-        <v>0.67558564680051414</v>
+        <v>0.94307779911282452</v>
       </c>
       <c r="C121">
-        <v>0.72573905968534924</v>
+        <v>0.94600579266923235</v>
       </c>
       <c r="D121">
-        <v>0.72389394357526116</v>
+        <v>0.93015797452548887</v>
       </c>
       <c r="E121">
-        <v>0.61618661707487588</v>
+        <v>0.883737385067484</v>
       </c>
       <c r="F121">
-        <v>0.68766889275545873</v>
+        <v>0.90068759579432633</v>
       </c>
       <c r="G121">
-        <v>0.14782859908482929</v>
+        <v>0.018434536296583901</v>
       </c>
       <c r="H121">
-        <v>0.32441435319948597</v>
+        <v>0.056922200887175367</v>
       </c>
       <c r="I121">
-        <v>0.2742609403146507</v>
+        <v>0.053994207330767638</v>
       </c>
       <c r="J121">
-        <v>0.27610605642473884</v>
+        <v>0.069842025474511113</v>
       </c>
       <c r="K121">
-        <v>0.38381338292512412</v>
+        <v>0.11626261493251606</v>
       </c>
       <c r="L121">
-        <v>0.31233110724454127</v>
+        <v>0.099312404205673666</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.094440094606032948</v>
+        <v>0.013159202389616169</v>
       </c>
       <c r="B122">
-        <v>0.034633064346876206</v>
+        <v>0.0073689391978333544</v>
       </c>
       <c r="C122">
-        <v>0.026381294957063907</v>
+        <v>0.0059791904784294025</v>
       </c>
       <c r="D122">
-        <v>0.031454100776694041</v>
+        <v>0.0088069457794044542</v>
       </c>
       <c r="E122">
-        <v>0.055635569066739728</v>
+        <v>0.018769176556687538</v>
       </c>
       <c r="F122">
-        <v>0.067513978662137847</v>
+        <v>0.02399909120602179</v>
       </c>
       <c r="G122">
-        <v>0.094440094606032962</v>
+        <v>0.013159202389616159</v>
       </c>
       <c r="H122">
-        <v>0.034633064346876206</v>
+        <v>0.0073689391978333562</v>
       </c>
       <c r="I122">
-        <v>0.026381294957063903</v>
+        <v>0.0059791904784294069</v>
       </c>
       <c r="J122">
-        <v>0.031454100776694048</v>
+        <v>0.0088069457794044508</v>
       </c>
       <c r="K122">
-        <v>0.055635569066739742</v>
+        <v>0.018769176556687542</v>
       </c>
       <c r="L122">
-        <v>0.067513978662137847</v>
+        <v>0.023999091206021797</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>9.0234068958750591</v>
+        <v>74.591562211852775</v>
       </c>
       <c r="B123">
-        <v>19.506955550742362</v>
+        <v>127.98013035446297</v>
       </c>
       <c r="C123">
-        <v>27.509607123778583</v>
+        <v>158.2163665937812</v>
       </c>
       <c r="D123">
-        <v>23.014294661115581</v>
+        <v>105.61640752923861</v>
       </c>
       <c r="E123">
-        <v>11.075407826523822</v>
+        <v>47.084504874168523</v>
       </c>
       <c r="F123">
-        <v>10.185577955593168</v>
+        <v>37.530070954033796</v>
       </c>
       <c r="G123">
-        <v>1.5653160842490919</v>
+        <v>1.4008855362791952</v>
       </c>
       <c r="H123">
-        <v>9.3671859339454357</v>
+        <v>7.7246126421984664</v>
       </c>
       <c r="I123">
-        <v>10.396037827597773</v>
+        <v>9.0303541132462222</v>
       </c>
       <c r="J123">
-        <v>8.7780623068811412</v>
+        <v>7.9303344455509999</v>
       </c>
       <c r="K123">
-        <v>6.8987050795635136</v>
+        <v>6.1943375396024596</v>
       </c>
       <c r="L123">
-        <v>4.6261694753252334</v>
+        <v>4.1381735397028043</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>6.9699753197494225e-12</v>
+        <v>0</v>
       </c>
       <c r="B124">
-        <v>5.2063883395893349e-70</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>1.3641068470475619e-117</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>1.1883418556942867e-87</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>1.1775314416659556e-23</v>
+        <v>1.8625048861971257e-298</v>
       </c>
       <c r="F124">
-        <v>6.2304769160774572e-23</v>
+        <v>2.9821827319573159e-196</v>
       </c>
       <c r="G124">
-        <v>0.12412360266379922</v>
+        <v>0.16166962801359891</v>
       </c>
       <c r="H124">
-        <v>6.891625193658792e-20</v>
+        <v>1.6812567635216655e-14</v>
       </c>
       <c r="I124">
-        <v>8.0044906138185595e-24</v>
+        <v>3.1602268761626116e-19</v>
       </c>
       <c r="J124">
-        <v>1.2709190293748992e-17</v>
+        <v>3.0774169373324684e-15</v>
       </c>
       <c r="K124">
-        <v>3.8964222088113316e-11</v>
+        <v>7.5329856504222798e-10</v>
       </c>
       <c r="L124">
-        <v>4.3750929434951663e-06</v>
+        <v>3.7807549774730101e-05</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.66225302975372435</v>
+        <v>0.9557314328837111</v>
       </c>
       <c r="B125">
-        <v>0.60760660926567356</v>
+        <v>0.92862711612765769</v>
       </c>
       <c r="C125">
-        <v>0.67395386560057802</v>
+        <v>0.93428158177325726</v>
       </c>
       <c r="D125">
-        <v>0.66213797656429285</v>
+        <v>0.91288956661729781</v>
       </c>
       <c r="E125">
-        <v>0.50663925756824701</v>
+        <v>0.8469209385114479</v>
       </c>
       <c r="F125">
-        <v>0.55513373094566854</v>
+        <v>0.85359600933636748</v>
       </c>
       <c r="G125">
-        <v>-0.042089772076617044</v>
+        <v>-0.0073994945231210668</v>
       </c>
       <c r="H125">
-        <v>0.25643531566464539</v>
+        <v>0.042471517902008531</v>
       </c>
       <c r="I125">
-        <v>0.22247574622987945</v>
+        <v>0.042269996434792574</v>
       </c>
       <c r="J125">
-        <v>0.21435008941377054</v>
+        <v>0.052573617566320049</v>
       </c>
       <c r="K125">
-        <v>0.27426602341849521</v>
+        <v>0.079446168376479984</v>
       </c>
       <c r="L125">
-        <v>0.17979594543475114</v>
+        <v>0.052220817747714851</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1.0420897720766169</v>
+        <v>1.0073994945231211</v>
       </c>
       <c r="B126">
-        <v>0.74356468433535472</v>
+        <v>0.95752848209799135</v>
       </c>
       <c r="C126">
-        <v>0.77752425377012047</v>
+        <v>0.95773000356520743</v>
       </c>
       <c r="D126">
-        <v>0.78564991058622946</v>
+        <v>0.94742638243367994</v>
       </c>
       <c r="E126">
-        <v>0.72573397658150474</v>
+        <v>0.92055383162352011</v>
       </c>
       <c r="F126">
-        <v>0.82020405456524892</v>
+        <v>0.94777918225228519</v>
       </c>
       <c r="G126">
-        <v>0.33774697024627565</v>
+        <v>0.044268567116288869</v>
       </c>
       <c r="H126">
-        <v>0.39239339073432655</v>
+        <v>0.071372883872342197</v>
       </c>
       <c r="I126">
-        <v>0.32604613439942193</v>
+        <v>0.065718418226742695</v>
       </c>
       <c r="J126">
-        <v>0.33786202343570715</v>
+        <v>0.087110433382702177</v>
       </c>
       <c r="K126">
-        <v>0.49336074243175304</v>
+        <v>0.15307906148855216</v>
       </c>
       <c r="L126">
-        <v>0.44486626905433141</v>
+        <v>0.14640399066363247</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>47.671256056474355</v>
+        <v>736.26385941229341</v>
       </c>
       <c r="B127">
-        <v>827.08465583263001</v>
+        <v>2234.4702189564446</v>
       </c>
       <c r="C127">
-        <v>795.33580928436902</v>
+        <v>2722.1813067698663</v>
       </c>
       <c r="D127">
-        <v>698.14465130190388</v>
+        <v>2939.0868165663983</v>
       </c>
       <c r="E127">
-        <v>263.24194228746285</v>
+        <v>1508.6667351217513</v>
       </c>
       <c r="F127">
-        <v>763.15481808599293</v>
+        <v>1050.9814617421121</v>
       </c>
       <c r="G127">
-        <v>47.671256056474341</v>
+        <v>736.26385941231069</v>
       </c>
       <c r="H127">
-        <v>827.08465583263035</v>
+        <v>2234.4702189564273</v>
       </c>
       <c r="I127">
-        <v>795.3358092843697</v>
+        <v>2722.1813067697917</v>
       </c>
       <c r="J127">
-        <v>698.14465130190172</v>
+        <v>2939.0868165664601</v>
       </c>
       <c r="K127">
-        <v>263.24194228746239</v>
+        <v>1508.6667351217416</v>
       </c>
       <c r="L127">
-        <v>763.15481808599225</v>
+        <v>1050.9814617421041</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>2.0109930210649543</v>
+        <v>1.9631912371900622</v>
       </c>
       <c r="B128">
-        <v>1.9628363477738899</v>
+        <v>1.9610262206282936</v>
       </c>
       <c r="C128">
-        <v>1.962951180715454</v>
+        <v>1.9608358252294276</v>
       </c>
       <c r="D128">
-        <v>1.9633677481165339</v>
+        <v>1.960771457066788</v>
       </c>
       <c r="E128">
-        <v>1.9690166083358878</v>
+        <v>1.9615376542940672</v>
       </c>
       <c r="F128">
-        <v>1.9630773424425136</v>
+        <v>1.9622237381281631</v>
       </c>
       <c r="G128">
-        <v>2.0109930210649543</v>
+        <v>1.9631912371900622</v>
       </c>
       <c r="H128">
-        <v>1.9628363477738899</v>
+        <v>1.9610262206282936</v>
       </c>
       <c r="I128">
-        <v>1.962951180715454</v>
+        <v>1.9608358252294276</v>
       </c>
       <c r="J128">
-        <v>1.9633677481165339</v>
+        <v>1.960771457066788</v>
       </c>
       <c r="K128">
-        <v>1.9690166083358878</v>
+        <v>1.9615376542940672</v>
       </c>
       <c r="L128">
-        <v>1.9630773424425136</v>
+        <v>1.9622237381281631</v>
       </c>
     </row>
     <row r="129">
@@ -2720,306 +2720,306 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.22217654347060894</v>
+        <v>0.93521961696520717</v>
       </c>
       <c r="B131">
-        <v>0.47145922412926905</v>
+        <v>0.90631160335734651</v>
       </c>
       <c r="C131">
-        <v>0.45889680526075916</v>
+        <v>0.88935920918686473</v>
       </c>
       <c r="D131">
-        <v>0.45804644627378632</v>
+        <v>0.86441514047220347</v>
       </c>
       <c r="E131">
-        <v>0.54401252484972207</v>
+        <v>0.86323663516209947</v>
       </c>
       <c r="F131">
-        <v>0.48756740702046714</v>
+        <v>0.83467754851797626</v>
       </c>
       <c r="G131">
-        <v>0.777823456529391</v>
+        <v>0.06478038303479286</v>
       </c>
       <c r="H131">
-        <v>0.52854077587073101</v>
+        <v>0.093688396642653535</v>
       </c>
       <c r="I131">
-        <v>0.54110319473924084</v>
+        <v>0.11064079081313527</v>
       </c>
       <c r="J131">
-        <v>0.54195355372621379</v>
+        <v>0.13558485952779656</v>
       </c>
       <c r="K131">
-        <v>0.45598747515027799</v>
+        <v>0.13676336483790058</v>
       </c>
       <c r="L131">
-        <v>0.51243259297953281</v>
+        <v>0.16532245148202385</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.10174942020322603</v>
+        <v>0.027085244960742608</v>
       </c>
       <c r="B132">
-        <v>0.037477326364294544</v>
+        <v>0.0088942174001752639</v>
       </c>
       <c r="C132">
-        <v>0.028918719756846529</v>
+        <v>0.0076027289251439705</v>
       </c>
       <c r="D132">
-        <v>0.034806268346840238</v>
+        <v>0.011402404111709254</v>
       </c>
       <c r="E132">
-        <v>0.05623551034217722</v>
+        <v>0.019997594362585087</v>
       </c>
       <c r="F132">
-        <v>0.071321608080330168</v>
+        <v>0.02963313638755544</v>
       </c>
       <c r="G132">
-        <v>0.10174942020322603</v>
+        <v>0.027085244960742608</v>
       </c>
       <c r="H132">
-        <v>0.037477326364294544</v>
+        <v>0.0088942174001752639</v>
       </c>
       <c r="I132">
-        <v>0.028918719756846532</v>
+        <v>0.0076027289251439688</v>
       </c>
       <c r="J132">
-        <v>0.034806268346840238</v>
+        <v>0.011402404111709249</v>
       </c>
       <c r="K132">
-        <v>0.056235510342177213</v>
+        <v>0.019997594362585091</v>
       </c>
       <c r="L132">
-        <v>0.071321608080330168</v>
+        <v>0.02963313638755543</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>2.1835656952821112</v>
+        <v>34.528748708779105</v>
       </c>
       <c r="B133">
-        <v>12.579852136369002</v>
+        <v>101.89897127312037</v>
       </c>
       <c r="C133">
-        <v>15.868503485605201</v>
+        <v>116.97894505294666</v>
       </c>
       <c r="D133">
-        <v>13.159883780398665</v>
+        <v>75.80990219286528</v>
       </c>
       <c r="E133">
-        <v>9.6738256937575446</v>
+        <v>43.167023968502427</v>
       </c>
       <c r="F133">
-        <v>6.8361807892962201</v>
+        <v>28.167033607299921</v>
       </c>
       <c r="G133">
-        <v>7.6445001354880411</v>
+        <v>2.3917222505716911</v>
       </c>
       <c r="H133">
-        <v>14.102947759215908</v>
+        <v>10.533630158490096</v>
       </c>
       <c r="I133">
-        <v>18.71117391395358</v>
+        <v>14.552773340007006</v>
       </c>
       <c r="J133">
-        <v>15.570573332530579</v>
+        <v>11.890901094144088</v>
       </c>
       <c r="K133">
-        <v>8.108532711372634</v>
+        <v>6.8389908485082991</v>
       </c>
       <c r="L133">
-        <v>7.1848154685796679</v>
+        <v>5.5789724489457608</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.036392826797947975</v>
+        <v>4.3383583078509021e-194</v>
       </c>
       <c r="B134">
-        <v>2.3915653279072328e-32</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>1.789707616313014e-48</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>2.3319658439138876e-34</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>1.145272267995439e-19</v>
+        <v>5.5388956155128251e-284</v>
       </c>
       <c r="F134">
-        <v>1.8421919539107842e-11</v>
+        <v>1.1006559999761424e-121</v>
       </c>
       <c r="G134">
-        <v>9.936273106095507e-09</v>
+        <v>0.016888560873625322</v>
       </c>
       <c r="H134">
-        <v>3.5583219224815602e-39</v>
+        <v>2.1632298493478868e-25</v>
       </c>
       <c r="I134">
-        <v>2.492219836784044e-63</v>
+        <v>1.2242476113521279e-46</v>
       </c>
       <c r="J134">
-        <v>3.561867424441431e-45</v>
+        <v>3.4197522328200586e-31</v>
       </c>
       <c r="K134">
-        <v>9.9375883021545213e-15</v>
+        <v>1.0727071439974352e-11</v>
       </c>
       <c r="L134">
-        <v>1.8096543839104014e-12</v>
+        <v>3.3157958521887695e-08</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.014969463790948684</v>
+        <v>0.88209186853113497</v>
       </c>
       <c r="B135">
-        <v>0.3978553308087206</v>
+        <v>0.88887040382276961</v>
       </c>
       <c r="C135">
-        <v>0.40211604678080604</v>
+        <v>0.87445302453290141</v>
       </c>
       <c r="D135">
-        <v>0.3896688249875872</v>
+        <v>0.84204834846902443</v>
       </c>
       <c r="E135">
-        <v>0.43339046836335771</v>
+        <v>0.82401698578903304</v>
       </c>
       <c r="F135">
-        <v>0.34752492427531378</v>
+        <v>0.77650931426252678</v>
       </c>
       <c r="G135">
-        <v>0.57061637684973077</v>
+        <v>0.011652634600720628</v>
       </c>
       <c r="H135">
-        <v>0.45493688255018255</v>
+        <v>0.076247197108076634</v>
       </c>
       <c r="I135">
-        <v>0.48432243625928773</v>
+        <v>0.095734606159172009</v>
       </c>
       <c r="J135">
-        <v>0.47357593244001467</v>
+        <v>0.11321806752461748</v>
       </c>
       <c r="K135">
-        <v>0.34536541866391363</v>
+        <v>0.097543715464834119</v>
       </c>
       <c r="L135">
-        <v>0.37239011023437951</v>
+        <v>0.10715421722657437</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.42938362315026923</v>
+        <v>0.98834736539927937</v>
       </c>
       <c r="B136">
-        <v>0.5450631174498175</v>
+        <v>0.92375280289192341</v>
       </c>
       <c r="C136">
-        <v>0.51567756374071227</v>
+        <v>0.90426539384082805</v>
       </c>
       <c r="D136">
-        <v>0.52642406755998539</v>
+        <v>0.88678193247538251</v>
       </c>
       <c r="E136">
-        <v>0.65463458133608643</v>
+        <v>0.90245628453516591</v>
       </c>
       <c r="F136">
-        <v>0.62760988976562049</v>
+        <v>0.89284578277342574</v>
       </c>
       <c r="G136">
-        <v>0.98503053620905123</v>
+        <v>0.11790813146886509</v>
       </c>
       <c r="H136">
-        <v>0.6021446691912794</v>
+        <v>0.11112959617723044</v>
       </c>
       <c r="I136">
-        <v>0.59788395321919396</v>
+        <v>0.12554697546709853</v>
       </c>
       <c r="J136">
-        <v>0.61033117501241285</v>
+        <v>0.15795165153097565</v>
       </c>
       <c r="K136">
-        <v>0.56660953163664241</v>
+        <v>0.17598301421096704</v>
       </c>
       <c r="L136">
-        <v>0.6524750757246861</v>
+        <v>0.22349068573747333</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>32.196937070194245</v>
+        <v>1544.121519572888</v>
       </c>
       <c r="B137">
-        <v>595.15205868196881</v>
+        <v>2384.3011252127185</v>
       </c>
       <c r="C137">
-        <v>679.69326626637371</v>
+        <v>3530.842161099702</v>
       </c>
       <c r="D137">
-        <v>521.84294324978134</v>
+        <v>1464.0725837624011</v>
       </c>
       <c r="E137">
-        <v>332.64713967832438</v>
+        <v>1892.3751471077792</v>
       </c>
       <c r="F137">
-        <v>665.47853079388244</v>
+        <v>796.8260993481482</v>
       </c>
       <c r="G137">
-        <v>32.196937070194259</v>
+        <v>1544.1215195728901</v>
       </c>
       <c r="H137">
-        <v>595.15205868196972</v>
+        <v>2384.3011252127167</v>
       </c>
       <c r="I137">
-        <v>679.69326626637223</v>
+        <v>3530.8421610997284</v>
       </c>
       <c r="J137">
-        <v>521.84294324978066</v>
+        <v>1464.0725837624282</v>
       </c>
       <c r="K137">
-        <v>332.64713967832529</v>
+        <v>1892.375147107763</v>
       </c>
       <c r="L137">
-        <v>665.47853079388244</v>
+        <v>796.8260993481573</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2.0364448196933376</v>
+        <v>1.9615014931958588</v>
       </c>
       <c r="B138">
-        <v>1.9639579570081724</v>
+        <v>1.9609594357602746</v>
       </c>
       <c r="C138">
-        <v>1.9634603107390411</v>
+        <v>1.9606360822184645</v>
       </c>
       <c r="D138">
-        <v>1.9645203158472611</v>
+        <v>1.9615856256322635</v>
       </c>
       <c r="E138">
-        <v>1.9671210559530865</v>
+        <v>1.9612183676675263</v>
       </c>
       <c r="F138">
-        <v>1.9635351265134433</v>
+        <v>1.9629455854655162</v>
       </c>
       <c r="G138">
-        <v>2.0364448196933376</v>
+        <v>1.9615014931958588</v>
       </c>
       <c r="H138">
-        <v>1.9639579570081724</v>
+        <v>1.9609594357602746</v>
       </c>
       <c r="I138">
-        <v>1.9634603107390411</v>
+        <v>1.9606360822184645</v>
       </c>
       <c r="J138">
-        <v>1.9645203158472611</v>
+        <v>1.9615856256322635</v>
       </c>
       <c r="K138">
-        <v>1.9671210559530865</v>
+        <v>1.9612183676675263</v>
       </c>
       <c r="L138">
-        <v>1.9635351265134433</v>
+        <v>1.9629455854655162</v>
       </c>
     </row>
     <row r="139">
@@ -3062,306 +3062,306 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.92565205561422026</v>
+        <v>0.99141404764118168</v>
       </c>
       <c r="B141">
-        <v>0.85295512907021698</v>
+        <v>0.97394482172481511</v>
       </c>
       <c r="C141">
-        <v>0.8153641350538916</v>
+        <v>0.9635825925784125</v>
       </c>
       <c r="D141">
-        <v>0.81805961015095252</v>
+        <v>0.9536307598211865</v>
       </c>
       <c r="E141">
-        <v>0.83980085807540195</v>
+        <v>0.94747469609152313</v>
       </c>
       <c r="F141">
-        <v>0.82476370022407397</v>
+        <v>0.9460175148166915</v>
       </c>
       <c r="G141">
-        <v>0.074347944385779657</v>
+        <v>0.0085859523588182659</v>
       </c>
       <c r="H141">
-        <v>0.14704487092978308</v>
+        <v>0.026055178275184814</v>
       </c>
       <c r="I141">
-        <v>0.18463586494610845</v>
+        <v>0.036417407421587444</v>
       </c>
       <c r="J141">
-        <v>0.18194038984904742</v>
+        <v>0.046369240178813595</v>
       </c>
       <c r="K141">
-        <v>0.16019914192459794</v>
+        <v>0.052525303908476907</v>
       </c>
       <c r="L141">
-        <v>0.17523629977592589</v>
+        <v>0.053982485183308559</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.086892502626259735</v>
+        <v>0.0084954800696472425</v>
       </c>
       <c r="B142">
-        <v>0.026795397199831952</v>
+        <v>0.0050152287641869178</v>
       </c>
       <c r="C142">
-        <v>0.02322259282200291</v>
+        <v>0.0048522297221402907</v>
       </c>
       <c r="D142">
-        <v>0.027446410301755274</v>
+        <v>0.0073506800952941971</v>
       </c>
       <c r="E142">
-        <v>0.040186528809517653</v>
+        <v>0.013545179457616916</v>
       </c>
       <c r="F142">
-        <v>0.055718994222043038</v>
+        <v>0.017826063151261815</v>
       </c>
       <c r="G142">
-        <v>0.086892502626259721</v>
+        <v>0.0084954800696472408</v>
       </c>
       <c r="H142">
-        <v>0.026795397199831962</v>
+        <v>0.0050152287641869204</v>
       </c>
       <c r="I142">
-        <v>0.023222592822002914</v>
+        <v>0.0048522297221402855</v>
       </c>
       <c r="J142">
-        <v>0.027446410301755281</v>
+        <v>0.0073506800952941962</v>
       </c>
       <c r="K142">
-        <v>0.040186528809517653</v>
+        <v>0.013545179457616918</v>
       </c>
       <c r="L142">
-        <v>0.055718994222043045</v>
+        <v>0.017826063151261808</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>10.65284147236058</v>
+        <v>116.69900223570863</v>
       </c>
       <c r="B143">
-        <v>31.832150973883167</v>
+        <v>194.19748679853365</v>
       </c>
       <c r="C143">
-        <v>35.110813908830693</v>
+        <v>198.58552619256076</v>
       </c>
       <c r="D143">
-        <v>29.805705050566679</v>
+        <v>129.73367735479164</v>
       </c>
       <c r="E143">
-        <v>20.897571473665227</v>
+        <v>69.949216919287537</v>
       </c>
       <c r="F143">
-        <v>14.802200070901289</v>
+        <v>53.069346091132175</v>
       </c>
       <c r="G143">
-        <v>0.85563129313427111</v>
+        <v>1.0106494616465838</v>
       </c>
       <c r="H143">
-        <v>5.4876914058473156</v>
+        <v>5.1952123223653057</v>
       </c>
       <c r="I143">
-        <v>7.9506998362030394</v>
+        <v>7.5052933407950793</v>
       </c>
       <c r="J143">
-        <v>6.6289320843320549</v>
+        <v>6.3081564668415568</v>
       </c>
       <c r="K143">
-        <v>3.9863891376121261</v>
+        <v>3.877785751959169</v>
       </c>
       <c r="L143">
-        <v>3.1450011297332514</v>
+        <v>3.0282897982153418</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>3.3113723714555694e-14</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>5.2756409186667279e-128</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>1.3561102380145487e-159</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>6.2225048593443684e-103</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>1.253421200680776e-64</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>4.9156952852999021e-42</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0.39647858124579427</v>
+        <v>0.31224300056846749</v>
       </c>
       <c r="H144">
-        <v>6.1626390576036294e-08</v>
+        <v>2.2308193326538337e-07</v>
       </c>
       <c r="I144">
-        <v>6.9505655613086363e-15</v>
+        <v>7.6382377307564087e-14</v>
       </c>
       <c r="J144">
-        <v>1.1175946184093941e-10</v>
+        <v>3.2145467291982248e-10</v>
       </c>
       <c r="K144">
-        <v>8.0818949137185511e-05</v>
+        <v>0.00011422819347572522</v>
       </c>
       <c r="L144">
-        <v>0.0017496219982288147</v>
+        <v>0.0024791607565177883</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.7509154814575234</v>
+        <v>0.97475836763281631</v>
       </c>
       <c r="B145">
-        <v>0.80032405119254546</v>
+        <v>0.96410981007082808</v>
       </c>
       <c r="C145">
-        <v>0.76977395905710633</v>
+        <v>0.95406927961915999</v>
       </c>
       <c r="D145">
-        <v>0.76409957195554246</v>
+        <v>0.93921820605013673</v>
       </c>
       <c r="E145">
-        <v>0.76077857711228081</v>
+        <v>0.92088566807115091</v>
       </c>
       <c r="F145">
-        <v>0.71531817724802205</v>
+        <v>0.91106577704765712</v>
       </c>
       <c r="G145">
-        <v>-0.1003886297709172</v>
+        <v>-0.0080697276495471492</v>
       </c>
       <c r="H145">
-        <v>0.094413793052111505</v>
+        <v>0.016220166621197827</v>
       </c>
       <c r="I145">
-        <v>0.13904568894932318</v>
+        <v>0.02690409446233491</v>
       </c>
       <c r="J145">
-        <v>0.1279803516536373</v>
+        <v>0.031956686407763821</v>
       </c>
       <c r="K145">
-        <v>0.081176860961476818</v>
+        <v>0.025936275888104651</v>
       </c>
       <c r="L145">
-        <v>0.065790776799873996</v>
+        <v>0.019030747414274143</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1.1003886297709171</v>
+        <v>1.0080697276495472</v>
       </c>
       <c r="B146">
-        <v>0.90558620694788849</v>
+        <v>0.98377983337880215</v>
       </c>
       <c r="C146">
-        <v>0.86095431105067688</v>
+        <v>0.97309590553766501</v>
       </c>
       <c r="D146">
-        <v>0.87201964834636259</v>
+        <v>0.96804331359223628</v>
       </c>
       <c r="E146">
-        <v>0.91882313903852308</v>
+        <v>0.97406372411189535</v>
       </c>
       <c r="F146">
-        <v>0.93420922320012589</v>
+        <v>0.98096925258572587</v>
       </c>
       <c r="G146">
-        <v>0.24908451854247651</v>
+        <v>0.025241632367183679</v>
       </c>
       <c r="H146">
-        <v>0.19967594880745465</v>
+        <v>0.035890189929171798</v>
       </c>
       <c r="I146">
-        <v>0.23022604094289373</v>
+        <v>0.045930720380839979</v>
       </c>
       <c r="J146">
-        <v>0.23590042804445754</v>
+        <v>0.060781793949863369</v>
       </c>
       <c r="K146">
-        <v>0.23922142288771908</v>
+        <v>0.07911433192884916</v>
       </c>
       <c r="L146">
-        <v>0.28468182275197779</v>
+        <v>0.088934222952342976</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>47.709479966337867</v>
+        <v>4160.8211982658122</v>
       </c>
       <c r="B147">
-        <v>563.39923405616867</v>
+        <v>2227.5558786792849</v>
       </c>
       <c r="C147">
-        <v>738.37608057573334</v>
+        <v>3693.5572444147874</v>
       </c>
       <c r="D147">
-        <v>393.27220745091125</v>
+        <v>3180.0677621630048</v>
       </c>
       <c r="E147">
-        <v>370.50925145633647</v>
+        <v>785.60362152741629</v>
       </c>
       <c r="F147">
-        <v>555.86809885429864</v>
+        <v>3181.7128708027867</v>
       </c>
       <c r="G147">
-        <v>47.709479966337874</v>
+        <v>4160.821198265814</v>
       </c>
       <c r="H147">
-        <v>563.39923405616548</v>
+        <v>2227.5558786792376</v>
       </c>
       <c r="I147">
-        <v>738.37608057573095</v>
+        <v>3693.5572444148875</v>
       </c>
       <c r="J147">
-        <v>393.27220745090943</v>
+        <v>3180.0677621630221</v>
       </c>
       <c r="K147">
-        <v>370.50925145633698</v>
+        <v>785.60362152741152</v>
       </c>
       <c r="L147">
-        <v>555.86809885429773</v>
+        <v>3181.7128708028304</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>2.0109511048182176</v>
+        <v>1.9605342925672959</v>
       </c>
       <c r="B148">
-        <v>1.9641835306700219</v>
+        <v>1.9610295195739611</v>
       </c>
       <c r="C148">
-        <v>1.9631819903240753</v>
+        <v>1.9606064642496519</v>
       </c>
       <c r="D148">
-        <v>1.9660144114350431</v>
+        <v>1.9607102450665062</v>
       </c>
       <c r="E148">
-        <v>1.9663873268995986</v>
+        <v>1.9629882426858758</v>
       </c>
       <c r="F148">
-        <v>1.9642408213598739</v>
+        <v>1.9607098590672489</v>
       </c>
       <c r="G148">
-        <v>2.0109511048182176</v>
+        <v>1.9605342925672959</v>
       </c>
       <c r="H148">
-        <v>1.9641835306700219</v>
+        <v>1.9610295195739611</v>
       </c>
       <c r="I148">
-        <v>1.9631819903240753</v>
+        <v>1.9606064642496519</v>
       </c>
       <c r="J148">
-        <v>1.9660144114350431</v>
+        <v>1.9607102450665062</v>
       </c>
       <c r="K148">
-        <v>1.9663873268995986</v>
+        <v>1.9629882426858758</v>
       </c>
       <c r="L148">
-        <v>1.9642408213598739</v>
+        <v>1.9607098590672489</v>
       </c>
     </row>
     <row r="149">
@@ -3404,114 +3404,114 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.69755773977974678</v>
+        <v>0.95420843727866222</v>
       </c>
       <c r="B151">
-        <v>0.70841132225735381</v>
+        <v>0.92335597774857203</v>
       </c>
       <c r="C151">
-        <v>0.30244226022025317</v>
+        <v>0.045791562721337782</v>
       </c>
       <c r="D151">
-        <v>0.29158867774264613</v>
+        <v>0.076644022251428107</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.030677967118113322</v>
+        <v>0.0055446720151803063</v>
       </c>
       <c r="B152">
-        <v>0.018290442683214028</v>
+        <v>0.0056042859455182918</v>
       </c>
       <c r="C152">
-        <v>0.030677967118113322</v>
+        <v>0.005544672015180308</v>
       </c>
       <c r="D152">
-        <v>0.018290442683214024</v>
+        <v>0.0056042859455182857</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>22.73806921736626</v>
+        <v>172.0946585598233</v>
       </c>
       <c r="B153">
-        <v>38.731228900626618</v>
+        <v>164.75889822984021</v>
       </c>
       <c r="C153">
-        <v>9.858614785517549</v>
+        <v>8.2586603131742997</v>
       </c>
       <c r="D153">
-        <v>15.942133429621711</v>
+        <v>13.675965679931068</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1.1307097522094565e-87</v>
+        <v>0</v>
       </c>
       <c r="B154">
-        <v>3.3971562532002276e-191</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>1.1798405429828157e-21</v>
+        <v>5.9596547070610173e-16</v>
       </c>
       <c r="D154">
-        <v>2.3055024804997429e-50</v>
+        <v>2.7890730717364641e-41</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.63733390518131205</v>
+        <v>0.94332484796048</v>
       </c>
       <c r="B155">
-        <v>0.67251253263859812</v>
+        <v>0.91236709557896944</v>
       </c>
       <c r="C155">
-        <v>0.2422184256218185</v>
+        <v>0.034907973403155573</v>
       </c>
       <c r="D155">
-        <v>0.25568988812389049</v>
+        <v>0.065655140081825575</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.7577815743781815</v>
+        <v>0.96509202659684445</v>
       </c>
       <c r="B156">
-        <v>0.74431011187610951</v>
+        <v>0.93434485991817462</v>
       </c>
       <c r="C156">
-        <v>0.36266609481868783</v>
+        <v>0.056675152039519991</v>
       </c>
       <c r="D156">
-        <v>0.32748746736140177</v>
+        <v>0.087632904421030638</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>758.30008648731928</v>
+        <v>811.53790751792678</v>
       </c>
       <c r="B157">
-        <v>865.86231633063005</v>
+        <v>2839.8196666520284</v>
       </c>
       <c r="C157">
-        <v>758.3000864873195</v>
+        <v>811.53790751791882</v>
       </c>
       <c r="D157">
-        <v>865.86231633063085</v>
+        <v>2839.819666652148</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.9630973058471157</v>
+        <v>1.9628914547848662</v>
       </c>
       <c r="B158">
-        <v>1.9627075320435849</v>
+        <v>1.9607996944535415</v>
       </c>
       <c r="C158">
-        <v>1.9630973058471157</v>
+        <v>1.9628914547848662</v>
       </c>
       <c r="D158">
-        <v>1.9627075320435849</v>
+        <v>1.9607996944535415</v>
       </c>
     </row>
     <row r="159">
@@ -3530,114 +3530,114 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.45683694368406219</v>
+        <v>0.91677124116854469</v>
       </c>
       <c r="B161">
-        <v>0.47179749137803839</v>
+        <v>0.86408521057776133</v>
       </c>
       <c r="C161">
-        <v>0.54316305631593775</v>
+        <v>0.083228758831455363</v>
       </c>
       <c r="D161">
-        <v>0.52820250862196161</v>
+        <v>0.13591478942223864</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.033756451954327672</v>
+        <v>0.0070171229914699831</v>
       </c>
       <c r="B162">
-        <v>0.01972933716179626</v>
+        <v>0.0066762251170305832</v>
       </c>
       <c r="C162">
-        <v>0.033756451954327686</v>
+        <v>0.0070171229914699875</v>
       </c>
       <c r="D162">
-        <v>0.01972933716179626</v>
+        <v>0.006676225117030584</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>13.533322290570126</v>
+        <v>130.64773729674855</v>
       </c>
       <c r="B163">
-        <v>23.91349934916331</v>
+        <v>129.42721304791542</v>
       </c>
       <c r="C163">
-        <v>16.090644154511104</v>
+        <v>11.860809470295479</v>
       </c>
       <c r="D163">
-        <v>26.772440669966802</v>
+        <v>20.358029730832399</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1.4733184588475037e-36</v>
+        <v>0</v>
       </c>
       <c r="B164">
-        <v>2.5113311126629552e-96</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>1.3231048510248788e-48</v>
+        <v>1.094282775856065e-31</v>
       </c>
       <c r="D164">
-        <v>5.3350102474481079e-114</v>
+        <v>2.8367017638654684e-87</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.39054019669386542</v>
+        <v>0.90301191071515685</v>
       </c>
       <c r="B165">
-        <v>0.43307161533125971</v>
+        <v>0.85099563006677514</v>
       </c>
       <c r="C165">
-        <v>0.47686630932574092</v>
+        <v>0.069469428378067521</v>
       </c>
       <c r="D165">
-        <v>0.48947663257518292</v>
+        <v>0.12282520891125247</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.52313369067425897</v>
+        <v>0.93053057162193253</v>
       </c>
       <c r="B166">
-        <v>0.51052336742481708</v>
+        <v>0.87717479108874752</v>
       </c>
       <c r="C166">
-        <v>0.60945980330613458</v>
+        <v>0.096988089284843204</v>
       </c>
       <c r="D166">
-        <v>0.56692838466874029</v>
+        <v>0.1490043699332248</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>592.98116275266511</v>
+        <v>2765.4209925988539</v>
       </c>
       <c r="B167">
-        <v>821.06687323054643</v>
+        <v>3584.6259270069422</v>
       </c>
       <c r="C167">
-        <v>592.98116275266159</v>
+        <v>2765.420992598782</v>
       </c>
       <c r="D167">
-        <v>821.06687323054643</v>
+        <v>3584.6259270069281</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.9639726082556299</v>
+        <v>1.9608221873998335</v>
       </c>
       <c r="B168">
-        <v>1.9628574304952928</v>
+        <v>1.9606259947100297</v>
       </c>
       <c r="C168">
-        <v>1.9639726082556299</v>
+        <v>1.9608221873998335</v>
       </c>
       <c r="D168">
-        <v>1.9628574304952928</v>
+        <v>1.9606259947100297</v>
       </c>
     </row>
     <row r="169">
@@ -3656,114 +3656,114 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.84560531653619098</v>
+        <v>0.97678389928186482</v>
       </c>
       <c r="B171">
-        <v>0.8197911863646079</v>
+        <v>0.95166293758881471</v>
       </c>
       <c r="C171">
-        <v>0.15439468346380905</v>
+        <v>0.02321610071813526</v>
       </c>
       <c r="D171">
-        <v>0.18020881363539226</v>
+        <v>0.048337062411185253</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.024037499720112879</v>
+        <v>0.0038746069222524927</v>
       </c>
       <c r="B172">
-        <v>0.015333317017021805</v>
+        <v>0.0045396893987758469</v>
       </c>
       <c r="C172">
-        <v>0.024037499720112879</v>
+        <v>0.0038746069222524923</v>
       </c>
       <c r="D172">
-        <v>0.015333317017021805</v>
+        <v>0.0045396893987758478</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>35.178588721049394</v>
+        <v>252.09883709029612</v>
       </c>
       <c r="B173">
-        <v>53.464699481171763</v>
+        <v>209.6317289560462</v>
       </c>
       <c r="C173">
-        <v>6.4230758299134791</v>
+        <v>5.9918596089841909</v>
       </c>
       <c r="D173">
-        <v>11.752761221550371</v>
+        <v>10.647658499328083</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>2.760102447361481e-164</v>
+        <v>0</v>
       </c>
       <c r="B174">
-        <v>3.7985290376493149e-278</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>2.2958412565137621e-10</v>
+        <v>2.3410107824505823e-09</v>
       </c>
       <c r="D174">
-        <v>1.0169900693718464e-29</v>
+        <v>4.1484186988543811e-26</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.79842093471442976</v>
+        <v>0.96918651336761408</v>
       </c>
       <c r="B175">
-        <v>0.78969688551809092</v>
+        <v>0.94276248249108296</v>
       </c>
       <c r="C175">
-        <v>0.10721030164204784</v>
+        <v>0.015618714803884505</v>
       </c>
       <c r="D175">
-        <v>0.15011451278887528</v>
+        <v>0.03943660731345356</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.89278969835795219</v>
+        <v>0.98438128519611556</v>
       </c>
       <c r="B176">
-        <v>0.84988548721112489</v>
+        <v>0.96056339268654645</v>
       </c>
       <c r="C176">
-        <v>0.20157906528557026</v>
+        <v>0.030813486632386013</v>
       </c>
       <c r="D176">
-        <v>0.21030311448190925</v>
+        <v>0.057237517508916945</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>795.96267935983099</v>
+        <v>2789.9999346287968</v>
       </c>
       <c r="B177">
-        <v>876.59909330867549</v>
+        <v>3810.1552761718117</v>
       </c>
       <c r="C177">
-        <v>795.9626793598303</v>
+        <v>2789.9999346288091</v>
       </c>
       <c r="D177">
-        <v>876.59909330867572</v>
+        <v>3810.1552761717944</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9629488245934605</v>
+        <v>1.9608146237022761</v>
       </c>
       <c r="B178">
-        <v>1.9626738828336183</v>
+        <v>1.9605867970024009</v>
       </c>
       <c r="C178">
-        <v>1.9629488245934605</v>
+        <v>1.9608146237022761</v>
       </c>
       <c r="D178">
-        <v>1.9626738828336183</v>
+        <v>1.9605867970024009</v>
       </c>
     </row>
     <row r="179">
@@ -3782,114 +3782,114 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.61498674853424862</v>
+        <v>0.94740270072844235</v>
       </c>
       <c r="B181">
-        <v>0.70928327728937723</v>
+        <v>0.93335152791480969</v>
       </c>
       <c r="C181">
-        <v>0.38501325146575144</v>
+        <v>0.052597299271557797</v>
       </c>
       <c r="D181">
-        <v>0.29071672271062277</v>
+        <v>0.066648472085190355</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.10804841718528804</v>
+        <v>0.017503716479430515</v>
       </c>
       <c r="B182">
-        <v>0.01632132549044191</v>
+        <v>0.0043469217286169082</v>
       </c>
       <c r="C182">
-        <v>0.10804841718528804</v>
+        <v>0.017503716479430519</v>
       </c>
       <c r="D182">
-        <v>0.01632132549044191</v>
+        <v>0.0043469217286169108</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>5.6917700837730152</v>
+        <v>54.125802474107843</v>
       </c>
       <c r="B183">
-        <v>43.457455566629527</v>
+        <v>214.71551276626758</v>
       </c>
       <c r="C183">
-        <v>3.5633400423210935</v>
+        <v>3.0049218023707982</v>
       </c>
       <c r="D183">
-        <v>17.812078000703572</v>
+        <v>15.332337742919595</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1.7077228988270739e-08</v>
+        <v>0</v>
       </c>
       <c r="B184">
-        <v>5.3792334228830889e-222</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0.00038567040391342464</v>
+        <v>0.0026724860302345722</v>
       </c>
       <c r="D184">
-        <v>6.5123425411769162e-61</v>
+        <v>1.2039318426067811e-51</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.40292667348724465</v>
+        <v>0.91308596713034973</v>
       </c>
       <c r="B185">
-        <v>0.67725038655715342</v>
+        <v>0.92482921795383233</v>
       </c>
       <c r="C185">
-        <v>0.17295317641874744</v>
+        <v>0.018280565673465164</v>
       </c>
       <c r="D185">
-        <v>0.258683831978399</v>
+        <v>0.058126162124212961</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.82704682358125259</v>
+        <v>0.98171943432653497</v>
       </c>
       <c r="B186">
-        <v>0.74131616802160105</v>
+        <v>0.94187383787578705</v>
       </c>
       <c r="C186">
-        <v>0.59707332651275546</v>
+        <v>0.086914032869650437</v>
       </c>
       <c r="D186">
-        <v>0.32274961344284653</v>
+        <v>0.075170782046167756</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>887.89932350849267</v>
+        <v>4120.7122564172105</v>
       </c>
       <c r="B187">
-        <v>887.59249764220294</v>
+        <v>4126.1373453498018</v>
       </c>
       <c r="C187">
-        <v>887.89932350849267</v>
+        <v>4120.7122564172041</v>
       </c>
       <c r="D187">
-        <v>887.59249764220294</v>
+        <v>4126.1373453497872</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.9626393479078033</v>
+        <v>1.9605398452620002</v>
       </c>
       <c r="B188">
-        <v>1.9626402739766984</v>
+        <v>1.9605390878958835</v>
       </c>
       <c r="C188">
-        <v>1.9626393479078033</v>
+        <v>1.9605398452620002</v>
       </c>
       <c r="D188">
-        <v>1.9626402739766984</v>
+        <v>1.9605390878958835</v>
       </c>
     </row>
     <row r="189">
@@ -3908,114 +3908,114 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.67393716573716567</v>
+        <v>0.95494528227989461</v>
       </c>
       <c r="B191">
-        <v>0.46128501021785234</v>
+        <v>0.87768294395419577</v>
       </c>
       <c r="C191">
-        <v>0.32606283426283428</v>
+        <v>0.045054717720105365</v>
       </c>
       <c r="D191">
-        <v>0.53871498978214771</v>
+        <v>0.12231705604580415</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.091025000896736749</v>
+        <v>0.014541704902608039</v>
       </c>
       <c r="B192">
-        <v>0.017592191321720484</v>
+        <v>0.0053955321314503148</v>
       </c>
       <c r="C192">
-        <v>0.091025000896736749</v>
+        <v>0.014541704902608038</v>
       </c>
       <c r="D192">
-        <v>0.017592191321720484</v>
+        <v>0.0053955321314503139</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>7.4038688173341871</v>
+        <v>65.66941694083107</v>
       </c>
       <c r="B193">
-        <v>26.221009184246384</v>
+        <v>162.66846764533591</v>
       </c>
       <c r="C193">
-        <v>3.5821239335414679</v>
+        <v>3.0983105503691561</v>
       </c>
       <c r="D193">
-        <v>30.622392624676298</v>
+        <v>22.670063501767238</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>3.0702150586976192e-13</v>
+        <v>0</v>
       </c>
       <c r="B194">
-        <v>1.0582076931248028e-112</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>0.00035932362688722945</v>
+        <v>0.0019909299306176335</v>
       </c>
       <c r="D194">
-        <v>3.6353462193204879e-141</v>
+        <v>2.1819637465101046e-107</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.49528805328676323</v>
+        <v>0.92641564824906442</v>
       </c>
       <c r="B195">
-        <v>0.42675792242915034</v>
+        <v>0.86710482114652643</v>
       </c>
       <c r="C195">
-        <v>0.14741372181243184</v>
+        <v>0.016525083689275182</v>
       </c>
       <c r="D195">
-        <v>0.50418790199344565</v>
+        <v>0.11173893323813475</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.85258627818756816</v>
+        <v>0.98347491631072481</v>
       </c>
       <c r="B196">
-        <v>0.49581209800655435</v>
+        <v>0.88826106676186511</v>
       </c>
       <c r="C196">
-        <v>0.50471194671323671</v>
+        <v>0.073584351750935556</v>
       </c>
       <c r="D196">
-        <v>0.57324207757084977</v>
+        <v>0.13289517885347354</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>888.39462450997053</v>
+        <v>1215.177706523926</v>
       </c>
       <c r="B197">
-        <v>888.63686421517855</v>
+        <v>4164.8300067950795</v>
       </c>
       <c r="C197">
-        <v>888.39462450997053</v>
+        <v>1215.1777065239289</v>
       </c>
       <c r="D197">
-        <v>888.63686421517878</v>
+        <v>4164.8300067950804</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.962637854330491</v>
+        <v>1.9619180984558027</v>
       </c>
       <c r="B198">
-        <v>1.9626371244651359</v>
+        <v>1.9605337434671166</v>
       </c>
       <c r="C198">
-        <v>1.962637854330491</v>
+        <v>1.9619180984558027</v>
       </c>
       <c r="D198">
-        <v>1.9626371244651359</v>
+        <v>1.9605337434671166</v>
       </c>
     </row>
     <row r="199">
@@ -4034,114 +4034,114 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.71107608572858572</v>
+        <v>0.96061570395033014</v>
       </c>
       <c r="B201">
-        <v>0.82943171249277037</v>
+        <v>0.96087566535123459</v>
       </c>
       <c r="C201">
-        <v>0.28892391427141428</v>
+        <v>0.039384296049669865</v>
       </c>
       <c r="D201">
-        <v>0.17056828750722963</v>
+        <v>0.039124334648765337</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.10570035696051579</v>
+        <v>0.016982661086355998</v>
       </c>
       <c r="B202">
-        <v>0.013517617750648492</v>
+        <v>0.0033967837126305505</v>
       </c>
       <c r="C202">
-        <v>0.10570035696051579</v>
+        <v>0.016982661086356002</v>
       </c>
       <c r="D202">
-        <v>0.013517617750648494</v>
+        <v>0.0033967837126305505</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>6.7272817819736135</v>
+        <v>56.564498288321623</v>
       </c>
       <c r="B203">
-        <v>61.359311070397695</v>
+        <v>282.87808310500566</v>
       </c>
       <c r="C203">
-        <v>2.7334242057417213</v>
+        <v>2.3190886192336198</v>
       </c>
       <c r="D203">
-        <v>12.618220950880698</v>
+        <v>11.518052946169632</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>3.0932062473531372e-11</v>
+        <v>0</v>
       </c>
       <c r="B204">
-        <v>1.6402979441929385e-321</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>0.0063924924214490628</v>
+        <v>0.020438722255391367</v>
       </c>
       <c r="D204">
-        <v>1.0823226332804159e-33</v>
+        <v>3.0742586065528087e-30</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.50362467519912546</v>
+        <v>0.9273205555083468</v>
       </c>
       <c r="B205">
-        <v>0.8029014822703916</v>
+        <v>0.95421614646249631</v>
       </c>
       <c r="C205">
-        <v>0.081472503741954</v>
+        <v>0.0060891476076865778</v>
       </c>
       <c r="D205">
-        <v>0.14403805728485086</v>
+        <v>0.032464815760027028</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.91852749625804597</v>
+        <v>0.99391085239231347</v>
       </c>
       <c r="B206">
-        <v>0.85596194271514914</v>
+        <v>0.96753518423997287</v>
       </c>
       <c r="C206">
-        <v>0.49637532480087454</v>
+        <v>0.072679444491653145</v>
       </c>
       <c r="D206">
-        <v>0.1970985177296084</v>
+        <v>0.045783853537503645</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>888.74401238556823</v>
+        <v>4135.634164455093</v>
       </c>
       <c r="B207">
-        <v>887.36672848070975</v>
+        <v>4143.8510020579597</v>
       </c>
       <c r="C207">
-        <v>888.74401238556823</v>
+        <v>4135.6341644550912</v>
       </c>
       <c r="D207">
-        <v>887.36672848070964</v>
+        <v>4143.851002057957</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.9626368017560569</v>
+        <v>1.9605377668834751</v>
       </c>
       <c r="B208">
-        <v>1.9626409558079136</v>
+        <v>1.9605366288043751</v>
       </c>
       <c r="C208">
-        <v>1.9626368017560569</v>
+        <v>1.9605377668834751</v>
       </c>
       <c r="D208">
-        <v>1.9626409558079136</v>
+        <v>1.9605366288043751</v>
       </c>
     </row>
     <row r="209">
@@ -4160,114 +4160,162 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.69084947153718623</v>
+        <v>0.92018586598996976</v>
       </c>
       <c r="B211">
-        <v>0.7903080394022115</v>
+        <v>0.91030477144317068</v>
       </c>
       <c r="C211">
-        <v>0.30915052846281377</v>
+        <v>0.94866579512817195</v>
       </c>
       <c r="D211">
-        <v>0.2096919605977885</v>
+        <v>0.079814134010030374</v>
+      </c>
+      <c r="E211">
+        <v>0.089695228556829404</v>
+      </c>
+      <c r="F211">
+        <v>0.051334204871828062</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.017174597581774465</v>
+        <v>0.00875950423884218</v>
       </c>
       <c r="B212">
-        <v>0.037776205450337559</v>
+        <v>0.013396237489223238</v>
       </c>
       <c r="C212">
-        <v>0.017174597581774465</v>
+        <v>0.0046119822569290559</v>
       </c>
       <c r="D212">
-        <v>0.037776205450337566</v>
+        <v>0.0087595042388421765</v>
+      </c>
+      <c r="E212">
+        <v>0.013396237489223242</v>
+      </c>
+      <c r="F212">
+        <v>0.0046119822569290585</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>40.22507475053213</v>
+        <v>105.04999380097323</v>
       </c>
       <c r="B213">
-        <v>20.920789422357124</v>
+        <v>67.952271835690894</v>
       </c>
       <c r="C213">
-        <v>18.00045252826661</v>
+        <v>205.69589002709054</v>
       </c>
       <c r="D213">
-        <v>5.5509005761168817</v>
+        <v>9.1117181787653472</v>
+      </c>
+      <c r="E213">
+        <v>6.6955537798569011</v>
+      </c>
+      <c r="F213">
+        <v>11.130616297298927</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>3.8607651089648265e-201</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>2.0626021199296813e-72</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>7.1882135994512069e-62</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <v>4.3742909436103884e-08</v>
+        <v>2.7150807826625848e-19</v>
+      </c>
+      <c r="E214">
+        <v>2.8546466008988794e-11</v>
+      </c>
+      <c r="F214">
+        <v>7.8460289023671e-28</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.65714124974764954</v>
+        <v>0.90300275446839218</v>
       </c>
       <c r="B215">
-        <v>0.71610923935386261</v>
+        <v>0.88403112554735064</v>
       </c>
       <c r="C215">
-        <v>0.27544230667327707</v>
+        <v>0.93962007235333767</v>
       </c>
       <c r="D215">
-        <v>0.13549316054943966</v>
+        <v>0.062631022488452842</v>
+      </c>
+      <c r="E215">
+        <v>0.063421582661009376</v>
+      </c>
+      <c r="F215">
+        <v>0.042288482096993818</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.72455769332672293</v>
+        <v>0.93736897751154735</v>
       </c>
       <c r="B216">
-        <v>0.86450683945056039</v>
+        <v>0.93657841733899072</v>
       </c>
       <c r="C216">
-        <v>0.34285875025235046</v>
+        <v>0.95771151790300624</v>
       </c>
       <c r="D216">
-        <v>0.28389076064613733</v>
+        <v>0.096997245531607906</v>
+      </c>
+      <c r="E216">
+        <v>0.11596887445264943</v>
+      </c>
+      <c r="F216">
+        <v>0.060379927646662307</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>874.95322962668945</v>
+        <v>1405.3623798510694</v>
       </c>
       <c r="B217">
-        <v>565.52542542700689</v>
+        <v>1816.8618323685728</v>
       </c>
       <c r="C217">
-        <v>874.95322962668945</v>
+        <v>1709.7255234681306</v>
       </c>
       <c r="D217">
-        <v>565.52542542700564</v>
+        <v>1405.3623798510976</v>
+      </c>
+      <c r="E217">
+        <v>1816.8618323685494</v>
+      </c>
+      <c r="F217">
+        <v>1709.7255234680888</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.9626789873264663</v>
+        <v>1.9616534284420648</v>
       </c>
       <c r="B218">
-        <v>1.9641676331386486</v>
+        <v>1.9612705371158259</v>
       </c>
       <c r="C218">
-        <v>1.9626789873264663</v>
+        <v>1.9613524664462707</v>
       </c>
       <c r="D218">
-        <v>1.9641676331386486</v>
+        <v>1.9616534284420613</v>
+      </c>
+      <c r="E218">
+        <v>1.9612705371158259</v>
+      </c>
+      <c r="F218">
+        <v>1.9613524664462707</v>
       </c>
     </row>
     <row r="219">
@@ -4283,117 +4331,171 @@
       <c r="D219">
         <v>0</v>
       </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.4740511877810813</v>
+        <v>0.88316831552720543</v>
       </c>
       <c r="B221">
-        <v>0.41869166652483736</v>
+        <v>0.92154449430753904</v>
       </c>
       <c r="C221">
-        <v>0.52594881221891865</v>
+        <v>0.87703885419989225</v>
       </c>
       <c r="D221">
-        <v>0.58130833347516264</v>
+        <v>0.11683168447279446</v>
+      </c>
+      <c r="E221">
+        <v>0.078455505692461028</v>
+      </c>
+      <c r="F221">
+        <v>0.12296114580010778</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.018303089259173715</v>
+        <v>0.0097317872028285148</v>
       </c>
       <c r="B222">
-        <v>0.045978067404496642</v>
+        <v>0.010956220672768793</v>
       </c>
       <c r="C222">
-        <v>0.018303089259173715</v>
+        <v>0.0064835035824938438</v>
       </c>
       <c r="D222">
-        <v>0.045978067404496642</v>
+        <v>0.0097317872028285131</v>
+      </c>
+      <c r="E222">
+        <v>0.010956220672768796</v>
+      </c>
+      <c r="F222">
+        <v>0.0064835035824938473</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>25.900064249726668</v>
+        <v>90.750886463127273</v>
       </c>
       <c r="B223">
-        <v>9.1063346103992497</v>
+        <v>84.111530958663295</v>
       </c>
       <c r="C223">
-        <v>28.735521352238784</v>
+        <v>135.27236362882431</v>
       </c>
       <c r="D223">
-        <v>12.6431658895326</v>
+        <v>12.005162262368181</v>
+      </c>
+      <c r="E223">
+        <v>7.1608183182599392</v>
+      </c>
+      <c r="F223">
+        <v>18.965231411626888</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>5.3035980016558529e-110</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>2.1068326918949883e-18</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>4.2810072726937753e-128</v>
+        <v>0</v>
       </c>
       <c r="D224">
-        <v>6.0435187820081231e-32</v>
+        <v>1.7938341836215817e-32</v>
+      </c>
+      <c r="E224">
+        <v>9.7151714612498584e-13</v>
+      </c>
+      <c r="F224">
+        <v>3.4797802513865522e-76</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.43812763543356947</v>
+        <v>0.8640867546978539</v>
       </c>
       <c r="B225">
-        <v>0.32835522781393445</v>
+        <v>0.90006332289805713</v>
       </c>
       <c r="C225">
-        <v>0.49002525987140688</v>
+        <v>0.86432672130543453</v>
       </c>
       <c r="D225">
-        <v>0.49097189476425973</v>
+        <v>0.097750123643442988</v>
+      </c>
+      <c r="E225">
+        <v>0.056974334282979155</v>
+      </c>
+      <c r="F225">
+        <v>0.11024901290565006</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.50997474012859312</v>
+        <v>0.90224987635655696</v>
       </c>
       <c r="B226">
-        <v>0.50902810523574027</v>
+        <v>0.94302566571702096</v>
       </c>
       <c r="C226">
-        <v>0.56187236456643042</v>
+        <v>0.88975098709434997</v>
       </c>
       <c r="D226">
-        <v>0.67164477218606555</v>
+        <v>0.13591324530214594</v>
+      </c>
+      <c r="E226">
+        <v>0.0999366771019429</v>
+      </c>
+      <c r="F226">
+        <v>0.1356732786945655</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>866.87601697935077</v>
+        <v>3035.522620516133</v>
       </c>
       <c r="B227">
-        <v>494.54537015876116</v>
+        <v>3526.134813002448</v>
       </c>
       <c r="C227">
-        <v>866.87601697935099</v>
+        <v>3274.0962924269843</v>
       </c>
       <c r="D227">
-        <v>494.54537015876156</v>
+        <v>3035.5226205161571</v>
+      </c>
+      <c r="E227">
+        <v>3526.134813002403</v>
+      </c>
+      <c r="F227">
+        <v>3274.0962924269193</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9627043194091676</v>
+        <v>1.9607457943393454</v>
       </c>
       <c r="B228">
-        <v>1.9647724189048452</v>
+        <v>1.9606369797636856</v>
       </c>
       <c r="C228">
-        <v>1.9627043194091676</v>
+        <v>1.9606888054757667</v>
       </c>
       <c r="D228">
-        <v>1.9647724189048452</v>
+        <v>1.9607457943393454</v>
+      </c>
+      <c r="E228">
+        <v>1.9606369797636856</v>
+      </c>
+      <c r="F228">
+        <v>1.9606888054757667</v>
       </c>
     </row>
     <row r="229">
@@ -4409,117 +4511,171 @@
       <c r="D229">
         <v>0</v>
       </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.83509934068173253</v>
+        <v>0.955864374523825</v>
       </c>
       <c r="B231">
-        <v>0.79100029407295103</v>
+        <v>0.95807552216316982</v>
       </c>
       <c r="C231">
-        <v>0.16490065931826745</v>
+        <v>0.96727477780469895</v>
       </c>
       <c r="D231">
-        <v>0.20899970592704889</v>
+        <v>0.044135625476174986</v>
+      </c>
+      <c r="E231">
+        <v>0.041924477836830149</v>
+      </c>
+      <c r="F231">
+        <v>0.032725222195301072</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.013724632875241196</v>
+        <v>0.0065094376905926255</v>
       </c>
       <c r="B232">
-        <v>0.036784168840249723</v>
+        <v>0.0090338003093011782</v>
       </c>
       <c r="C232">
-        <v>0.013724632875241196</v>
+        <v>0.0036633570803863503</v>
       </c>
       <c r="D232">
-        <v>0.036784168840249723</v>
+        <v>0.006509437690592629</v>
+      </c>
+      <c r="E232">
+        <v>0.0090338003093011852</v>
+      </c>
+      <c r="F232">
+        <v>0.0036633570803863516</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>60.84675257057151</v>
+        <v>146.84284879248952</v>
       </c>
       <c r="B233">
-        <v>21.503824036590114</v>
+        <v>106.05453844012222</v>
       </c>
       <c r="C233">
-        <v>12.014941369815656</v>
+        <v>264.04053893176223</v>
       </c>
       <c r="D233">
-        <v>5.6817841075794178</v>
+        <v>6.7802516244927471</v>
+      </c>
+      <c r="E233">
+        <v>4.6408461999834971</v>
+      </c>
+      <c r="F233">
+        <v>8.9331237652240407</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>2.9802474534912332e-317</v>
+        <v>0</v>
       </c>
       <c r="B234">
-        <v>6.886554559584626e-80</v>
+        <v>0</v>
       </c>
       <c r="C234">
-        <v>6.7545226212119445e-31</v>
+        <v>0</v>
       </c>
       <c r="D234">
-        <v>1.923834676053403e-08</v>
+        <v>1.5018819839681154e-11</v>
+      </c>
+      <c r="E234">
+        <v>3.5975964106562578e-06</v>
+      </c>
+      <c r="F234">
+        <v>6.4423592498159228e-19</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.80816243602463533</v>
+        <v>0.94309973402346925</v>
       </c>
       <c r="B235">
-        <v>0.71878530905093962</v>
+        <v>0.94036344980918896</v>
       </c>
       <c r="C235">
-        <v>0.1379637546611702</v>
+        <v>0.96009234168984914</v>
       </c>
       <c r="D235">
-        <v>0.13678472090503752</v>
+        <v>0.031370984975819249</v>
+      </c>
+      <c r="E235">
+        <v>0.024212405482849239</v>
+      </c>
+      <c r="F235">
+        <v>0.025542786080451269</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.86203624533882972</v>
+        <v>0.96862901502418075</v>
       </c>
       <c r="B236">
-        <v>0.86321527909496243</v>
+        <v>0.97578759451715069</v>
       </c>
       <c r="C236">
-        <v>0.19183756397536469</v>
+        <v>0.97445721391954876</v>
       </c>
       <c r="D236">
-        <v>0.28121469094906026</v>
+        <v>0.056900265976530723</v>
+      </c>
+      <c r="E236">
+        <v>0.059636550190811058</v>
+      </c>
+      <c r="F236">
+        <v>0.039907658310150876</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>878.34051698380233</v>
+        <v>2422.7027520626771</v>
       </c>
       <c r="B237">
-        <v>732.40127668856951</v>
+        <v>3486.3517228653855</v>
       </c>
       <c r="C237">
-        <v>878.34051698380222</v>
+        <v>3640.1514116318413</v>
       </c>
       <c r="D237">
-        <v>732.40127668856951</v>
+        <v>2422.7027520626193</v>
+      </c>
+      <c r="E237">
+        <v>3486.3517228652995</v>
+      </c>
+      <c r="F237">
+        <v>3640.1514116318099</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.9626685028268094</v>
+        <v>1.9609436493728269</v>
       </c>
       <c r="B238">
-        <v>1.9632082849454728</v>
+        <v>1.9606446619972981</v>
       </c>
       <c r="C238">
-        <v>1.9626685028268094</v>
+        <v>1.9606158933576627</v>
       </c>
       <c r="D238">
-        <v>1.9632082849454728</v>
+        <v>1.9609436493728269</v>
+      </c>
+      <c r="E238">
+        <v>1.9606446619972981</v>
+      </c>
+      <c r="F238">
+        <v>1.9606158933576627</v>
       </c>
     </row>
     <row r="239">
@@ -4535,165 +4691,171 @@
       <c r="D239">
         <v>0</v>
       </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.59813153241461492</v>
+        <v>0.9238375360853972</v>
       </c>
       <c r="B241">
-        <v>0.70161238140193538</v>
+        <v>0.92567433558478474</v>
       </c>
       <c r="C241">
-        <v>0.74279462926641582</v>
+        <v>0.94907233287543102</v>
       </c>
       <c r="D241">
-        <v>0.40186846758538508</v>
+        <v>0.076162463914602824</v>
       </c>
       <c r="E241">
-        <v>0.29838761859806467</v>
+        <v>0.074325664415215265</v>
       </c>
       <c r="F241">
-        <v>0.25720537073358418</v>
+        <v>0.050927667124568921</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.050290676503527448</v>
+        <v>0.010026437995599708</v>
       </c>
       <c r="B242">
-        <v>0.026693089140436197</v>
+        <v>0.0079503362689915258</v>
       </c>
       <c r="C242">
-        <v>0.02318613721912155</v>
+        <v>0.0050148085203338671</v>
       </c>
       <c r="D242">
-        <v>0.050290676503527448</v>
+        <v>0.010026437995599708</v>
       </c>
       <c r="E242">
-        <v>0.026693089140436197</v>
+        <v>0.0079503362689915258</v>
       </c>
       <c r="F242">
-        <v>0.02318613721912155</v>
+        <v>0.0050148085203338671</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>11.89348750106118</v>
+        <v>92.140153511231091</v>
       </c>
       <c r="B243">
-        <v>26.284420574578359</v>
+        <v>116.43209850068436</v>
       </c>
       <c r="C243">
-        <v>32.036152561619232</v>
+        <v>189.25395237468516</v>
       </c>
       <c r="D243">
-        <v>7.9909139332654942</v>
+        <v>7.5961636573255786</v>
       </c>
       <c r="E243">
-        <v>11.17845960159217</v>
+        <v>9.3487447449368375</v>
       </c>
       <c r="F243">
-        <v>11.093066874523091</v>
+        <v>10.155455969668479</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>2.2437057345779497e-30</v>
+        <v>0</v>
       </c>
       <c r="B244">
-        <v>4.0336777702468863e-113</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>2.4725175355334768e-150</v>
+        <v>0</v>
       </c>
       <c r="D244">
-        <v>4.1420239874002697e-15</v>
+        <v>3.7436787059338881e-14</v>
       </c>
       <c r="E244">
-        <v>3.08707483958189e-27</v>
+        <v>1.4083594188221697e-20</v>
       </c>
       <c r="F244">
-        <v>7.1588066864062904e-27</v>
+        <v>5.9431812023935942e-24</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.49942923969686298</v>
+        <v>0.90418036767503418</v>
       </c>
       <c r="B245">
-        <v>0.64922356341306664</v>
+        <v>0.91008743433160089</v>
       </c>
       <c r="C245">
-        <v>0.69728868140677269</v>
+        <v>0.93924063235794031</v>
       </c>
       <c r="D245">
-        <v>0.30316617486763314</v>
+        <v>0.056505295504239841</v>
       </c>
       <c r="E245">
-        <v>0.24599880060919591</v>
+        <v>0.058738763162031415</v>
       </c>
       <c r="F245">
-        <v>0.21169942287394108</v>
+        <v>0.041095966607078226</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.6968338251323668</v>
+        <v>0.94349470449576023</v>
       </c>
       <c r="B246">
-        <v>0.75400119939080412</v>
+        <v>0.94126123683796858</v>
       </c>
       <c r="C246">
-        <v>0.78830057712605894</v>
+        <v>0.95890403339292174</v>
       </c>
       <c r="D246">
-        <v>0.50057076030313696</v>
+        <v>0.095819632324965806</v>
       </c>
       <c r="E246">
-        <v>0.35077643658693347</v>
+        <v>0.089912565668399114</v>
       </c>
       <c r="F246">
-        <v>0.30271131859322725</v>
+        <v>0.060759367642059615</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B247">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C247">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D247">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E247">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F247">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B248">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C248">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D248">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E248">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F248">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="249">
@@ -4718,162 +4880,162 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.53859979626746624</v>
+        <v>0.91642223465960126</v>
       </c>
       <c r="B251">
-        <v>0.46151411218629529</v>
+        <v>0.86989548364313873</v>
       </c>
       <c r="C251">
-        <v>0.43812587589973628</v>
+        <v>0.88711488695830742</v>
       </c>
       <c r="D251">
-        <v>0.46140020373253376</v>
+        <v>0.083577765340398499</v>
       </c>
       <c r="E251">
-        <v>0.53848588781370466</v>
+        <v>0.13010451635686138</v>
       </c>
       <c r="F251">
-        <v>0.56187412410026372</v>
+        <v>0.11288511304169262</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.051048567253269048</v>
+        <v>0.010692248048675789</v>
       </c>
       <c r="B252">
-        <v>0.028252199935830193</v>
+        <v>0.0091794210971715591</v>
       </c>
       <c r="C252">
-        <v>0.026144337689325278</v>
+        <v>0.0071130481495506864</v>
       </c>
       <c r="D252">
-        <v>0.051048567253269048</v>
+        <v>0.010692248048675789</v>
       </c>
       <c r="E252">
-        <v>0.028252199935830193</v>
+        <v>0.0091794210971715591</v>
       </c>
       <c r="F252">
-        <v>0.026144337689325278</v>
+        <v>0.0071130481495506864</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>10.550732865729456</v>
+        <v>85.709032421212683</v>
       </c>
       <c r="B253">
-        <v>16.335510623404261</v>
+        <v>94.765832663584661</v>
       </c>
       <c r="C253">
-        <v>16.757964233250512</v>
+        <v>124.71655868298097</v>
       </c>
       <c r="D253">
-        <v>9.0384555053890683</v>
+        <v>7.816669138231358</v>
       </c>
       <c r="E253">
-        <v>19.059963083822812</v>
+        <v>14.173499067054488</v>
       </c>
       <c r="F253">
-        <v>21.491235722895237</v>
+        <v>15.870146056697688</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1.3359671440891191e-24</v>
+        <v>0</v>
       </c>
       <c r="B254">
-        <v>1.1785228285120423e-52</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>5.5207741836750575e-55</v>
+        <v>0</v>
       </c>
       <c r="D254">
-        <v>9.7375808549186774e-19</v>
+        <v>6.8203706606624372e-15</v>
       </c>
       <c r="E254">
-        <v>3.5730323952881623e-68</v>
+        <v>1.430064239744119e-44</v>
       </c>
       <c r="F254">
-        <v>7.727077240071326e-83</v>
+        <v>4.0812941506226193e-55</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.43841003987195237</v>
+        <v>0.89545972328014267</v>
       </c>
       <c r="B255">
-        <v>0.40606532720542171</v>
+        <v>0.85189892030769199</v>
       </c>
       <c r="C255">
-        <v>0.38681405726984497</v>
+        <v>0.87316951718211155</v>
       </c>
       <c r="D255">
-        <v>0.3612104473370199</v>
+        <v>0.062615253960939907</v>
       </c>
       <c r="E255">
-        <v>0.48303710283283108</v>
+        <v>0.11210795302141459</v>
       </c>
       <c r="F255">
-        <v>0.5105623054703724</v>
+        <v>0.098939743265496691</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.6387895526629801</v>
+        <v>0.93738474603905986</v>
       </c>
       <c r="B256">
-        <v>0.51696289716716881</v>
+        <v>0.88789204697858548</v>
       </c>
       <c r="C256">
-        <v>0.4894376945296276</v>
+        <v>0.9010602567345033</v>
       </c>
       <c r="D256">
-        <v>0.56158996012804763</v>
+        <v>0.10454027671985709</v>
       </c>
       <c r="E256">
-        <v>0.59393467279457823</v>
+        <v>0.14810107969230815</v>
       </c>
       <c r="F256">
-        <v>0.61318594273015503</v>
+        <v>0.12683048281788853</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B257">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C257">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D257">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E257">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F257">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B258">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C258">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D258">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E258">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F258">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="259">
@@ -4898,162 +5060,162 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.86326867131791885</v>
+        <v>0.97028467118278106</v>
       </c>
       <c r="B261">
-        <v>0.83687350641176939</v>
+        <v>0.95983709620856106</v>
       </c>
       <c r="C261">
-        <v>0.81907949483384779</v>
+        <v>0.96541287071147175</v>
       </c>
       <c r="D261">
-        <v>0.13673132868208115</v>
+        <v>0.029715328817219118</v>
       </c>
       <c r="E261">
-        <v>0.16312649358823067</v>
+        <v>0.040162903791439095</v>
       </c>
       <c r="F261">
-        <v>0.1809205051661521</v>
+        <v>0.034587129288528244</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.03027193756063749</v>
+        <v>0.0058609827164393486</v>
       </c>
       <c r="B262">
-        <v>0.021668879382617561</v>
+        <v>0.0058240059532286698</v>
       </c>
       <c r="C262">
-        <v>0.020401337265058758</v>
+        <v>0.0042169369271342454</v>
       </c>
       <c r="D262">
-        <v>0.03027193756063749</v>
+        <v>0.0058609827164393486</v>
       </c>
       <c r="E262">
-        <v>0.021668879382617561</v>
+        <v>0.0058240059532286698</v>
       </c>
       <c r="F262">
-        <v>0.020401337265058758</v>
+        <v>0.0042169369271342454</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>28.517126450486092</v>
+        <v>165.54982639024848</v>
       </c>
       <c r="B263">
-        <v>38.620986883294776</v>
+        <v>164.80702525320285</v>
       </c>
       <c r="C263">
-        <v>40.14832381780581</v>
+        <v>228.93699559493982</v>
       </c>
       <c r="D263">
-        <v>4.5167683240689716</v>
+        <v>5.0700249864022311</v>
       </c>
       <c r="E263">
-        <v>7.5281462741025829</v>
+        <v>6.8960959370540955</v>
       </c>
       <c r="F263">
-        <v>8.8680708923926037</v>
+        <v>8.2019555630472851</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>1.5367714794671604e-127</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>2.3952869532236373e-192</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>7.1756031819929344e-202</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>7.1252574410983425e-06</v>
+        <v>4.1504081242154672e-07</v>
       </c>
       <c r="E264">
-        <v>1.2623393223384749e-13</v>
+        <v>6.1502884798066742e-12</v>
       </c>
       <c r="F264">
-        <v>4.0137706760094603e-18</v>
+        <v>3.1188151985662948e-16</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.80385587654205271</v>
+        <v>0.95879401773657835</v>
       </c>
       <c r="B265">
-        <v>0.79434538341985139</v>
+        <v>0.94841893694843138</v>
       </c>
       <c r="C265">
-        <v>0.77903909564716811</v>
+        <v>0.95714542424753957</v>
       </c>
       <c r="D265">
-        <v>0.077318533906214987</v>
+        <v>0.01822467537101647</v>
       </c>
       <c r="E265">
-        <v>0.12059837059631262</v>
+        <v>0.02874474453130945</v>
       </c>
       <c r="F265">
-        <v>0.14088010597947245</v>
+        <v>0.026319682824596027</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.92268146609378499</v>
+        <v>0.98177532462898376</v>
       </c>
       <c r="B266">
-        <v>0.87940162940368738</v>
+        <v>0.97125525546869074</v>
       </c>
       <c r="C266">
-        <v>0.85911989402052746</v>
+        <v>0.97368031717540393</v>
       </c>
       <c r="D266">
-        <v>0.19614412345794732</v>
+        <v>0.041205982263421766</v>
       </c>
       <c r="E266">
-        <v>0.20565461658014872</v>
+        <v>0.051581063051568739</v>
       </c>
       <c r="F266">
-        <v>0.22096090435283175</v>
+        <v>0.042854575752460461</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B267">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C267">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D267">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E267">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F267">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B268">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C268">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D268">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E268">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F268">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="269">
@@ -5078,162 +5240,162 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.71608071548821561</v>
+        <v>0.95114867344936727</v>
       </c>
       <c r="B271">
-        <v>0.70634709165978526</v>
+        <v>0.93599864359954776</v>
       </c>
       <c r="C271">
-        <v>0.68864743734335843</v>
+        <v>0.92808013307064496</v>
       </c>
       <c r="D271">
-        <v>0.2839192845117845</v>
+        <v>0.048851326550632818</v>
       </c>
       <c r="E271">
-        <v>0.29365290834021474</v>
+        <v>0.064001356400452195</v>
       </c>
       <c r="F271">
-        <v>0.31135256265664157</v>
+        <v>0.071919866929355092</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.048935127732466749</v>
+        <v>0.0093556200895542167</v>
       </c>
       <c r="B272">
-        <v>0.025866162397792738</v>
+        <v>0.0066198152510548534</v>
       </c>
       <c r="C272">
-        <v>0.022915470636982588</v>
+        <v>0.006205790872471792</v>
       </c>
       <c r="D272">
-        <v>0.048935127732466749</v>
+        <v>0.0093556200895542167</v>
       </c>
       <c r="E272">
-        <v>0.025866162397792738</v>
+        <v>0.0066198152510548534</v>
       </c>
       <c r="F272">
-        <v>0.022915470636982588</v>
+        <v>0.006205790872471792</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>14.633265481661777</v>
+        <v>101.66602152981271</v>
       </c>
       <c r="B273">
-        <v>27.307765287983372</v>
+        <v>141.39346916825184</v>
       </c>
       <c r="C273">
-        <v>30.05163839977919</v>
+        <v>149.55066197726816</v>
       </c>
       <c r="D273">
-        <v>5.801952455585683</v>
+        <v>5.2216022116135887</v>
       </c>
       <c r="E273">
-        <v>11.352782211143671</v>
+        <v>9.6681484260839028</v>
       </c>
       <c r="F273">
-        <v>13.587002754120137</v>
+        <v>11.589154131568264</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1.3186920956620229e-43</v>
+        <v>0</v>
       </c>
       <c r="B274">
-        <v>1.020832072950864e-119</v>
+        <v>0</v>
       </c>
       <c r="C274">
-        <v>1.7483410299638621e-137</v>
+        <v>0</v>
       </c>
       <c r="D274">
-        <v>9.1100788243399885e-09</v>
+        <v>1.8603519673642226e-07</v>
       </c>
       <c r="E274">
-        <v>5.4629852530582783e-28</v>
+        <v>6.9790564613383512e-22</v>
       </c>
       <c r="F274">
-        <v>2.418079091195203e-38</v>
+        <v>1.3712509305810097e-30</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.6200388716030627</v>
+        <v>0.93280666607202622</v>
       </c>
       <c r="B275">
-        <v>0.65558122987439504</v>
+        <v>0.92302027348519777</v>
       </c>
       <c r="C275">
-        <v>0.64367270946476529</v>
+        <v>0.91591347165477544</v>
       </c>
       <c r="D275">
-        <v>0.18787744062663153</v>
+        <v>0.030509319173291773</v>
       </c>
       <c r="E275">
-        <v>0.24288704655482449</v>
+        <v>0.051022986286102197</v>
       </c>
       <c r="F275">
-        <v>0.26637783477804844</v>
+        <v>0.059753205513485536</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.81212255937336852</v>
+        <v>0.96949068082670831</v>
       </c>
       <c r="B276">
-        <v>0.75711295344517549</v>
+        <v>0.94897701371389775</v>
       </c>
       <c r="C276">
-        <v>0.73362216522195156</v>
+        <v>0.94024679448651449</v>
       </c>
       <c r="D276">
-        <v>0.37996112839693746</v>
+        <v>0.067193333927973858</v>
       </c>
       <c r="E276">
-        <v>0.34441877012560496</v>
+        <v>0.076979726514802185</v>
       </c>
       <c r="F276">
-        <v>0.35632729053523471</v>
+        <v>0.084086528345224648</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B277">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C277">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D277">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E277">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F277">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B278">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C278">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D278">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E278">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F278">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="279">
@@ -5258,162 +5420,162 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.44497052188552189</v>
+        <v>0.90496225287833509</v>
       </c>
       <c r="B281">
-        <v>0.46690027745664742</v>
+        <v>0.88463748814261689</v>
       </c>
       <c r="C281">
-        <v>0.47579856377053742</v>
+        <v>0.87967809269922514</v>
       </c>
       <c r="D281">
-        <v>0.55502947811447811</v>
+        <v>0.095037747121664934</v>
       </c>
       <c r="E281">
-        <v>0.53309972254335258</v>
+        <v>0.11536251185738325</v>
       </c>
       <c r="F281">
-        <v>0.52420143622946258</v>
+        <v>0.12032190730077488</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.053170117777171851</v>
+        <v>0.012624612334717202</v>
       </c>
       <c r="B282">
-        <v>0.027596834105976766</v>
+        <v>0.0080430413888534953</v>
       </c>
       <c r="C282">
-        <v>0.024325560692528565</v>
+        <v>0.0073419374420480464</v>
       </c>
       <c r="D282">
-        <v>0.053170117777171851</v>
+        <v>0.012624612334717202</v>
       </c>
       <c r="E282">
-        <v>0.027596834105976766</v>
+        <v>0.0080430413888534953</v>
       </c>
       <c r="F282">
-        <v>0.024325560692528565</v>
+        <v>0.0073419374420480464</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>8.3688082796868706</v>
+        <v>71.682379536496612</v>
       </c>
       <c r="B283">
-        <v>16.918617391533648</v>
+        <v>109.98793184983455</v>
       </c>
       <c r="C283">
-        <v>19.559613436440781</v>
+        <v>119.81552548530533</v>
       </c>
       <c r="D283">
-        <v>10.438748329287611</v>
+        <v>7.5279735014369313</v>
       </c>
       <c r="E283">
-        <v>19.317423168764741</v>
+        <v>14.343145370016272</v>
       </c>
       <c r="F283">
-        <v>21.549408165973645</v>
+        <v>16.388304619932974</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>2.2421224509930377e-16</v>
+        <v>0</v>
       </c>
       <c r="B284">
-        <v>7.0493717679545613e-56</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>3.9197979479926749e-71</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>3.836876398887682e-24</v>
+        <v>6.2798710618319351e-14</v>
       </c>
       <c r="E284">
-        <v>1.0759297871929354e-69</v>
+        <v>1.4088221256708832e-45</v>
       </c>
       <c r="F284">
-        <v>3.3867328415851566e-83</v>
+        <v>1.5189301952138522e-58</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.34061693403287768</v>
+        <v>0.88021127642109342</v>
       </c>
       <c r="B285">
-        <v>0.41273773705374983</v>
+        <v>0.86886883538860793</v>
       </c>
       <c r="C285">
-        <v>0.42805634237033441</v>
+        <v>0.86528397777825061</v>
       </c>
       <c r="D285">
-        <v>0.45067589026183391</v>
+        <v>0.070286770664423265</v>
       </c>
       <c r="E285">
-        <v>0.478937182140455</v>
+        <v>0.099593859103374344</v>
       </c>
       <c r="F285">
-        <v>0.47645921482925957</v>
+        <v>0.10592779237980032</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.54932410973816603</v>
+        <v>0.92971322933557676</v>
       </c>
       <c r="B286">
-        <v>0.521062817859545</v>
+        <v>0.90040614089662585</v>
       </c>
       <c r="C286">
-        <v>0.52354078517074043</v>
+        <v>0.89407220762019968</v>
       </c>
       <c r="D286">
-        <v>0.65938306596712226</v>
+        <v>0.1197887235789066</v>
       </c>
       <c r="E286">
-        <v>0.58726226294625017</v>
+        <v>0.13113116461139215</v>
       </c>
       <c r="F286">
-        <v>0.57194365762966559</v>
+        <v>0.13471602222174944</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B287">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C287">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D287">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E287">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F287">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B288">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C288">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D288">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E288">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F288">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="289">
@@ -5438,162 +5600,162 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.83894876262626261</v>
+        <v>0.97152159830413543</v>
       </c>
       <c r="B291">
-        <v>0.82675263088356732</v>
+        <v>0.96239430602085974</v>
       </c>
       <c r="C291">
-        <v>0.83555399888610415</v>
+        <v>0.9620075526307772</v>
       </c>
       <c r="D291">
-        <v>0.16105123737373739</v>
+        <v>0.028478401695864693</v>
       </c>
       <c r="E291">
-        <v>0.17324736911643271</v>
+        <v>0.037605693979140244</v>
       </c>
       <c r="F291">
-        <v>0.16444600111389585</v>
+        <v>0.037992447369222804</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.0362917056261517</v>
+        <v>0.0065883015287606147</v>
       </c>
       <c r="B292">
-        <v>0.021712541143961903</v>
+        <v>0.0051359467091576681</v>
       </c>
       <c r="C292">
-        <v>0.018452322633597348</v>
+        <v>0.0045868102811805747</v>
       </c>
       <c r="D292">
-        <v>0.0362917056261517</v>
+        <v>0.0065883015287606147</v>
       </c>
       <c r="E292">
-        <v>0.021712541143961903</v>
+        <v>0.0051359467091576681</v>
       </c>
       <c r="F292">
-        <v>0.018452322633597348</v>
+        <v>0.0045868102811805747</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>23.116818241293089</v>
+        <v>147.46161724126449</v>
       </c>
       <c r="B293">
-        <v>38.077193516958793</v>
+        <v>187.38401321510193</v>
       </c>
       <c r="C293">
-        <v>45.281779181811856</v>
+        <v>209.73345171432973</v>
       </c>
       <c r="D293">
-        <v>4.4376871958777357</v>
+        <v>4.3225710862723714</v>
       </c>
       <c r="E293">
-        <v>7.9791383223060244</v>
+        <v>7.3220568881852444</v>
       </c>
       <c r="F293">
-        <v>8.9119404846346164</v>
+        <v>8.2829777209455742</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>5.9412342880608522e-93</v>
+        <v>0</v>
       </c>
       <c r="B294">
-        <v>6.2202574751631065e-189</v>
+        <v>0</v>
       </c>
       <c r="C294">
-        <v>4.4451526671425528e-233</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>1.0234280987173002e-05</v>
+        <v>1.5782276651305558e-05</v>
       </c>
       <c r="E294">
-        <v>4.5278793029882121e-15</v>
+        <v>2.9158834078145071e-13</v>
       </c>
       <c r="F294">
-        <v>2.7931114782935354e-18</v>
+        <v>1.6015065492136933e-16</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.76772135426782351</v>
+        <v>0.95860501190067526</v>
       </c>
       <c r="B295">
-        <v>0.7841388157465361</v>
+        <v>0.95232511001597053</v>
       </c>
       <c r="C295">
-        <v>0.7993388060008787</v>
+        <v>0.95301495703470196</v>
       </c>
       <c r="D295">
-        <v>0.089823829015298257</v>
+        <v>0.015561815292404559</v>
       </c>
       <c r="E295">
-        <v>0.13063355397940146</v>
+        <v>0.027536497974251048</v>
       </c>
       <c r="F295">
-        <v>0.12823080822867033</v>
+        <v>0.028999851773147609</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.91017617098470172</v>
+        <v>0.98443818470759559</v>
       </c>
       <c r="B296">
-        <v>0.86936644602059854</v>
+        <v>0.97246350202574894</v>
       </c>
       <c r="C296">
-        <v>0.87176919177132961</v>
+        <v>0.97100014822685243</v>
       </c>
       <c r="D296">
-        <v>0.23227864573217652</v>
+        <v>0.041394988099324827</v>
       </c>
       <c r="E296">
-        <v>0.21586118425346396</v>
+        <v>0.047674889984029439</v>
       </c>
       <c r="F296">
-        <v>0.20066119399912136</v>
+        <v>0.046985042965297999</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B297">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="C297">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="D297">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="E297">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="F297">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B298">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="C298">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="D298">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="E298">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="F298">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="299">
@@ -5618,66 +5780,66 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.70545997977346286</v>
+        <v>0.93629066828610852</v>
       </c>
       <c r="B301">
-        <v>0.29454002022653719</v>
+        <v>0.063709331713891398</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.015511843443649786</v>
+        <v>0.0038615839072468254</v>
       </c>
       <c r="B302">
-        <v>0.015511843443649786</v>
+        <v>0.0038615839072468254</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>45.478797045380375</v>
+        <v>242.46285741170158</v>
       </c>
       <c r="B303">
-        <v>18.988073293578495</v>
+        <v>16.498238350934585</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>2.9959174920483628e-234</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>9.4690769892916807e-68</v>
+        <v>2.7645100514057319e-59</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.67501587723569578</v>
+        <v>0.92871990335156129</v>
       </c>
       <c r="B305">
-        <v>0.26409591768877011</v>
+        <v>0.05613856677934416</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.73590408231122995</v>
+        <v>0.94386143322065574</v>
       </c>
       <c r="B306">
-        <v>0.32498412276430427</v>
+        <v>0.071280096648438637</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B307">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B308">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="309">
@@ -5690,66 +5852,66 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.46598279733009706</v>
+        <v>0.88433138521129195</v>
       </c>
       <c r="B311">
-        <v>0.53401720266990294</v>
+        <v>0.11566861478870813</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.016735109729447799</v>
+        <v>0.0048468916662127107</v>
       </c>
       <c r="B312">
-        <v>0.016735109729447799</v>
+        <v>0.0048468916662127107</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>27.844621568876494</v>
+        <v>182.45330123136327</v>
       </c>
       <c r="B313">
-        <v>31.909991108706262</v>
+        <v>23.864493525824948</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>3.4607511796864399e-123</v>
+        <v>0</v>
       </c>
       <c r="B314">
-        <v>1.617252959712496e-149</v>
+        <v>4.3323514822089141e-118</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.43313786832891737</v>
+        <v>0.87482889132549302</v>
       </c>
       <c r="B315">
-        <v>0.50117227366872319</v>
+        <v>0.10616612090290922</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.49882772633127676</v>
+        <v>0.89383387909709089</v>
       </c>
       <c r="B316">
-        <v>0.56686213167108268</v>
+        <v>0.12517110867450704</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B317">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B318">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="319">
@@ -5762,26 +5924,26 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.82855722289644018</v>
+        <v>0.96293288046951919</v>
       </c>
       <c r="B321">
-        <v>0.17144277710355987</v>
+        <v>0.037067119530481044</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.012763040882658545</v>
+        <v>0.0029850406600617019</v>
       </c>
       <c r="B322">
-        <v>0.012763040882658545</v>
+        <v>0.0029850406600617019</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>64.918480675104718</v>
+        <v>322.58618562656864</v>
       </c>
       <c r="B323">
-        <v>13.432753109527633</v>
+        <v>12.417626341382851</v>
       </c>
     </row>
     <row r="324">
@@ -5789,39 +5951,39 @@
         <v>0</v>
       </c>
       <c r="B324">
-        <v>1.3752950931514383e-37</v>
+        <v>8.5948246754639084e-35</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.80350801925169624</v>
+        <v>0.95708060800821582</v>
       </c>
       <c r="B325">
-        <v>0.14639357345881593</v>
+        <v>0.031214847069177674</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.85360642654118413</v>
+        <v>0.96878515293082257</v>
       </c>
       <c r="B326">
-        <v>0.19649198074830382</v>
+        <v>0.042919391991784413</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
       <c r="B327">
-        <v>889.00671140939585</v>
+        <v>4166.0014385039558</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
       <c r="B328">
-        <v>1.9626360108881977</v>
+        <v>1.9605335832116948</v>
       </c>
     </row>
     <row r="329">
